--- a/Amitrano/MEC_GN.xlsx
+++ b/Amitrano/MEC_GN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiar\Desktop\last version_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Documents\GitHub\Modified-Energy-Cascade\Amitrano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93602CC-E8E6-44BA-8874-34EEB5F60E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F1687-1806-4871-91DF-FAC0AB78FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="2" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="598" activeTab="1" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable&amp;Parameters list" sheetId="1" r:id="rId1"/>
@@ -1461,23 +1461,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,24 +1479,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1521,7 +1511,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1583,7 +1573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2033,7 +2023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316412464"/>
@@ -2081,7 +2071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318297136"/>
@@ -2123,7 +2113,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2160,7 +2150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2174,7 +2164,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2241,7 +2231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2705,7 +2695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316412464"/>
@@ -2767,7 +2757,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318297136"/>
@@ -2809,7 +2799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2846,7 +2836,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2860,7 +2850,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4001,7 +3991,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4033,7 +4023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -4099,7 +4089,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4131,7 +4121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -4180,7 +4170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4212,7 +4202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4226,7 +4216,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4805,7 +4795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -4886,7 +4876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -4933,7 +4923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4954,7 +4944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4968,7 +4958,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6192,7 +6182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -6240,7 +6230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -6279,7 +6269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6316,7 +6306,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6330,7 +6320,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7477,7 +7467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -7525,7 +7515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -7564,7 +7554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7601,7 +7591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7615,7 +7605,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8762,7 +8752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -8810,7 +8800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -8859,7 +8849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8896,7 +8886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8910,7 +8900,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10052,7 +10042,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10087,7 +10077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1494853584"/>
@@ -10135,7 +10125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1848086784"/>
@@ -10184,7 +10174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10221,7 +10211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14437,7 +14427,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
     <oleItems>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14603,7 +14593,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
     <oleItems>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14769,7 +14759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15069,21 +15059,21 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15097,7 +15087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15108,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -15119,7 +15109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -15130,7 +15120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -15138,7 +15128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -15149,7 +15139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -15157,7 +15147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -15168,7 +15158,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -15179,53 +15169,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0.4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>35</v>
       </c>
@@ -15239,7 +15228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -15264,7 +15253,7 @@
         <v>0.43979721166032953</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -15281,7 +15270,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -15295,7 +15284,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -15309,7 +15298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -15333,7 +15322,7 @@
         <v>0.38197424892703863</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -15353,7 +15342,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -15373,7 +15362,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -15384,7 +15373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -15398,7 +15387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -15409,7 +15398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -15417,7 +15406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -15425,7 +15414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -15439,7 +15428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -15450,7 +15439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -15461,7 +15450,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -15481,110 +15470,110 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK32" sqref="AK32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="28" width="16.140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="22.7109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7265625" customWidth="1"/>
+    <col min="27" max="28" width="16.1796875" customWidth="1"/>
+    <col min="29" max="29" width="7.7265625" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="22.7265625" customWidth="1"/>
+    <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>6.9186745653911832E-3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="3" t="e">
+      <c r="D5" t="e">
         <f>CUEmin/CQYmin</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <f>CUEmax/CQYmax</f>
         <v>0.37959240882809064</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -15592,60 +15581,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="15" spans="1:31" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="T15" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="AE16" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="15" spans="1:31" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="T15" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="AE16" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
       <c r="G20" t="s">
@@ -15678,34 +15657,34 @@
       <c r="Y20" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" t="s">
         <v>96</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" t="s">
         <v>96</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AD20" t="s">
         <v>97</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" t="s">
         <v>97</v>
       </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AH20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -15717,2635 +15696,2632 @@
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="15" t="s">
+      <c r="Z21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="4" t="s">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="15" t="s">
+      <c r="AE21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AF21" s="15" t="s">
+      <c r="AF21" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15" t="s">
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI21" s="15" t="s">
+      <c r="AI21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AJ21" s="15" t="s">
+      <c r="AJ21" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="11">
+      <c r="C22" s="7"/>
+      <c r="D22" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="4">
         <f t="shared" ref="E22:E44" si="0">IF(A22&lt;=1,CQYmin,IF(A22&lt;=16,CQYmin+(CQYmax-CQYmin)/(16-1)*(A22-1),CQYmax))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <f t="shared" ref="F22:F44" si="1">IF(A22&lt;=1,CUEmin,IF(A22&lt;=16,CUEmin+(CUEmax-CUEmin)/(16-1)*(A22-1),CUEmax))</f>
         <v>6.9186745653911832E-3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <f>0.0036*B22*F22*D22</f>
         <v>9.4011835584879772E-2</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <f>MWc*G22/BCF</f>
         <v>2.8203550675463926</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>8.5355100000000004</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <f>(I22-J22)^2</f>
         <v>3.0360100000011175E-5</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
         <f t="shared" ref="S22:S44" si="2">OPF*G22</f>
         <v>0.10153278243167016</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="4">
         <v>24.8666666666666</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="4">
         <v>20.2</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="4">
         <f>0.611*EXP(17.4*U22/(U22+239))</f>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="4">
         <v>0.79069999999999996</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="4">
         <f>W22*V22</f>
         <v>1.8748404243790369</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="4">
         <f>V22*(1-W22)</f>
         <v>0.49627431493933544</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="4">
         <f>((1.717*U22)-19.96-(10.54*Y22))*(AE22/370)</f>
         <v>2.7916141485769558E-2</v>
       </c>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="7">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4">
         <f>gA*Z22/(gA+Z22)</f>
         <v>2.7607859520769142E-2</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AD22" s="4">
         <f>E22*D22</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AE22" s="4">
         <f>(E22*(24-B22)/24+B22*F22/24)*D22</f>
         <v>1.0880999488990712</v>
       </c>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="7" cm="1">
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4" cm="1">
         <f t="array" ref="AH22">3600*B22*(MWw/pw)*AC22*(Y22/100)</f>
         <v>0.10653953253307202</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22" s="4">
         <v>0.21667165999999899</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="4">
         <f>(AH22-AI22)^2</f>
         <v>1.2129085500391448E-2</v>
       </c>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7" t="s">
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11">
+      <c r="C23" s="7"/>
+      <c r="D23" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>3.0117712833578319E-3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>7.6006751106541736E-3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <f t="shared" ref="G23:G44" si="3">0.0036*B23*F23*D23</f>
         <v>0.10327894628998309</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <f>MWc*G23/BCF</f>
         <v>3.0983683886994928</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <f>IF(A23&gt;tE,I22+H23,I22)</f>
         <v>11.628368388699492</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="4">
         <v>10.608029999999999</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <f t="shared" ref="K23:K44" si="4">(I23-J23)^2</f>
         <v>1.0410904274538773</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
         <f t="shared" si="2"/>
         <v>0.11154126199318175</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="4">
         <v>24.839285714285701</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="4">
         <v>20.2</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="4">
         <f t="shared" ref="V23:V44" si="5">0.611*EXP(17.4*U23/(U23+239))</f>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="4">
         <v>0.82517857142857198</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="4">
         <f t="shared" ref="X23:X44" si="6">W23*V23</f>
         <v>1.9565930732839654</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="4">
         <f t="shared" ref="Y23:Y43" si="7">V23*(1-W23)</f>
         <v>0.41452166603440699</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="4">
         <f>((1.717*U23)-19.96-(10.54*Y23))*(AE23/370)</f>
         <v>4.6707020353983712E-2</v>
       </c>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="7">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4">
         <f t="shared" ref="AC23:AC44" si="8">gA*Z23/(gA+Z23)</f>
         <v>4.5850406015187792E-2</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AD23" s="4">
         <f t="shared" ref="AD23:AD44" si="9">E23*D23</f>
         <v>0.94732253946737255</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AE23" s="4">
         <f t="shared" ref="AE23:AE44" si="10">(E23*(24-B23)/24+B23*F23/24)*D23</f>
         <v>1.669019444386268</v>
       </c>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="7">
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4">
         <f t="shared" ref="AH23:AH44" si="11">3600*B23*(18.015/998.23)*AC23*(Y23/100)</f>
         <v>0.14817598278292421</v>
       </c>
-      <c r="AI23" s="7">
+      <c r="AI23" s="4">
         <v>0.24396708372524753</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AJ23" s="4">
         <f t="shared" ref="AJ23:AJ44" si="12">(AH23-AI23)^2</f>
         <v>9.1759350197423758E-3</v>
       </c>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="11">
+      <c r="C24" s="7"/>
+      <c r="D24" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>6.0235425667156638E-3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>8.2826756559171641E-3</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <f>0.0036*B24*F24*D24</f>
         <v>0.11254605699508639</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <f>MWc*G24/BCF</f>
         <v>3.3763817098525917</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <f t="shared" ref="I24:I44" si="13">IF(A24&gt;tE,I23+H24,I23)</f>
         <v>15.004750098552083</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="4">
         <v>13.44411</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <f t="shared" si="4"/>
         <v>2.4355975172086559</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
         <f t="shared" si="2"/>
         <v>0.12154974155469331</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="4">
         <v>24.869523809523798</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="4">
         <v>20.2</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="4">
         <v>0.81559523809523804</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="4">
         <f t="shared" si="6"/>
         <v>1.9338698903654961</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="4">
         <f t="shared" si="7"/>
         <v>0.43724484895287613</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24" s="4">
         <f>((1.717*U24)-19.96-(10.54*Y24))*(AE24/370)</f>
         <v>6.1507488631663478E-2</v>
       </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="7">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4">
         <f t="shared" si="8"/>
         <v>6.0030557108111636E-2</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AD24" s="4">
         <f t="shared" si="9"/>
         <v>1.8946450789347451</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE24" s="4">
         <f t="shared" si="10"/>
         <v>2.249938939873465</v>
       </c>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="7">
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4">
         <f t="shared" si="11"/>
         <v>0.20463714650775117</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AI24" s="4">
         <v>0.11010212049717268</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AJ24" s="4">
         <f t="shared" si="12"/>
         <v>8.9368711428207525E-3</v>
       </c>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="11">
+      <c r="C25" s="7"/>
+      <c r="D25" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>9.0353138500734956E-3</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>8.9646762011801537E-3</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <f t="shared" si="3"/>
         <v>0.1218131677001897</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H43" si="14">MWc*G25/BCF</f>
         <v>3.654395031005691</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <f t="shared" si="13"/>
         <v>18.659145129557775</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>14.834879999999998</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <f t="shared" si="4"/>
         <v>14.625003781151557</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
         <f t="shared" si="2"/>
         <v>0.13155822111620488</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <v>24.838095238095228</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="4">
         <v>20.2</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="4">
         <v>0.823440476190476</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="4">
         <f t="shared" si="6"/>
         <v>1.9524718500465768</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="4">
         <f t="shared" si="7"/>
         <v>0.41864288927179544</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25" s="4">
         <f>((1.717*U25)-19.96-(10.54*Y25))*(AE25/370)</f>
         <v>7.8888403823706973E-2</v>
       </c>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="7">
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4">
         <f t="shared" si="8"/>
         <v>7.6475201201745946E-2</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AD25" s="4">
         <f t="shared" si="9"/>
         <v>2.8419676184021174</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AE25" s="4">
         <f t="shared" si="10"/>
         <v>2.8308584353606614</v>
       </c>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="7">
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4">
         <f>3600*B25*(18.015/998.23)*AC25*(Y25/100)</f>
         <v>0.24960411615598763</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AI25" s="4">
         <v>0.17715052756768032</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AJ25" s="4">
         <f t="shared" si="12"/>
         <v>5.2495224993236948E-3</v>
       </c>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="11">
+      <c r="C26" s="7"/>
+      <c r="D26" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>1.2047085133431328E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>9.646676746443145E-3</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <f t="shared" si="3"/>
         <v>0.13108027840529302</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <f t="shared" si="14"/>
         <v>3.9324083521587903</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <f t="shared" si="13"/>
         <v>22.591553481716566</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="4">
         <v>17.207369999999997</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <f t="shared" si="4"/>
         <v>28.989431764789554</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
         <f t="shared" si="2"/>
         <v>0.14156670067771646</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="4">
         <v>24.845238095238102</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="4">
         <v>20.2</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="4">
         <v>0.80982142857142903</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="4">
         <f t="shared" si="6"/>
         <v>1.9201795255015757</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="4">
         <f t="shared" si="7"/>
         <v>0.45093521381679652</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="4">
         <f>((1.717*U26)-19.96-(10.54*Y26))*(AE26/370)</f>
         <v>9.1938589302220097E-2</v>
       </c>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="7">
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4">
         <f t="shared" si="8"/>
         <v>8.8677437885373495E-2</v>
       </c>
-      <c r="AD26" s="11">
+      <c r="AD26" s="4">
         <f t="shared" si="9"/>
         <v>3.7892901578694902</v>
       </c>
-      <c r="AE26" s="11">
+      <c r="AE26" s="4">
         <f t="shared" si="10"/>
         <v>3.4117779308478582</v>
       </c>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="7">
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4">
         <f t="shared" si="11"/>
         <v>0.31175590147610643</v>
       </c>
-      <c r="AI26" s="7">
+      <c r="AI26" s="4">
         <v>0.28430573375270429</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AJ26" s="4">
         <f t="shared" si="12"/>
         <v>7.535117080429087E-4</v>
       </c>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="11">
+      <c r="C27" s="7"/>
+      <c r="D27" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>1.5058856416789159E-2</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>1.0328677291706135E-2</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <f t="shared" si="3"/>
         <v>0.14034738911039632</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <f t="shared" si="14"/>
         <v>4.2104216733118891</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <f t="shared" si="13"/>
         <v>26.801975155028455</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="4">
         <v>24.379379999999998</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <f t="shared" si="4"/>
         <v>5.8689672851673533</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
         <f t="shared" si="2"/>
         <v>0.15157518023922803</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="4">
         <v>24.86547619047618</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="4">
         <v>20.2</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="4">
         <v>0.81476190476190502</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="4">
         <f t="shared" si="6"/>
         <v>1.9318939614160648</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="4">
         <f t="shared" si="7"/>
         <v>0.4392207779023074</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27" s="4">
         <f t="shared" ref="Z27:Z43" si="15">((1.717*U27)-19.96-(10.54*Y27))*(AE27/370)</f>
         <v>0.10892524251385043</v>
       </c>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="7">
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4">
         <f t="shared" si="8"/>
         <v>0.10437750451685485</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AD27" s="4">
         <f t="shared" si="9"/>
         <v>4.7366126973368621</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE27" s="4">
         <f t="shared" si="10"/>
         <v>3.992697426335055</v>
       </c>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="7">
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4">
         <f t="shared" si="11"/>
         <v>0.35741862671041624</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="AI27" s="4">
         <v>0.36436441630564753</v>
       </c>
-      <c r="AJ27" s="7">
+      <c r="AJ27" s="4">
         <f t="shared" si="12"/>
         <v>4.8243993101223231E-5</v>
       </c>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="11">
+      <c r="C28" s="7"/>
+      <c r="D28" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>1.8070627700146991E-2</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>1.1010677836969126E-2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <f t="shared" si="3"/>
         <v>0.14961449981549965</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <f t="shared" si="14"/>
         <v>4.4884349944649893</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <f t="shared" si="13"/>
         <v>31.290410149493443</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="4">
         <v>27.324540000000002</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <f t="shared" si="4"/>
         <v>15.728126042643124</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4">
         <f t="shared" si="2"/>
         <v>0.16158365980073963</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="4">
         <v>24.716666666666661</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="4">
         <v>20.2</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="4">
         <v>0.80524999999999902</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="4">
         <f t="shared" si="6"/>
         <v>1.9093401438361168</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="4">
         <f t="shared" si="7"/>
         <v>0.4617745954822553</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="4">
         <f t="shared" si="15"/>
         <v>0.12183492186746975</v>
       </c>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="7">
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4">
         <f t="shared" si="8"/>
         <v>0.11617333422797045</v>
       </c>
-      <c r="AD28" s="11">
+      <c r="AD28" s="4">
         <f t="shared" si="9"/>
         <v>5.6839352368042348</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE28" s="4">
         <f t="shared" si="10"/>
         <v>4.5736169218222518</v>
       </c>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="7">
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4">
         <f t="shared" si="11"/>
         <v>0.41823838233428978</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AI28" s="4">
         <v>0.34191337145474787</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="4">
         <f t="shared" si="12"/>
         <v>5.8255072857621906E-3</v>
       </c>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="11">
+      <c r="C29" s="7"/>
+      <c r="D29" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>2.1082398983504821E-2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>1.1692678382232116E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <f t="shared" si="3"/>
         <v>0.15888161052060293</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <f t="shared" si="14"/>
         <v>4.7664483156180877</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <f t="shared" si="13"/>
         <v>36.056858465111532</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="4">
         <v>28.442610000000002</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="4">
         <f t="shared" si="4"/>
         <v>57.976779688453284</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4">
         <f t="shared" si="2"/>
         <v>0.17159213936225118</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="4">
         <v>24.872619047619054</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="4">
         <v>20.2</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="4">
         <v>0.810752380952381</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="4">
         <f t="shared" si="6"/>
         <v>1.9223869204136546</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="4">
         <f t="shared" si="7"/>
         <v>0.44872781890471775</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="4">
         <f t="shared" si="15"/>
         <v>0.13922554418705291</v>
       </c>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="7">
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4">
         <f t="shared" si="8"/>
         <v>0.13188105928811195</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AD29" s="4">
         <f t="shared" si="9"/>
         <v>6.6312577762716067</v>
       </c>
-      <c r="AE29" s="11">
+      <c r="AE29" s="4">
         <f t="shared" si="10"/>
         <v>5.1545364173094477</v>
       </c>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="7">
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4">
         <f t="shared" si="11"/>
         <v>0.46137368128605982</v>
       </c>
-      <c r="AI29" s="7">
+      <c r="AI29" s="4">
         <v>0.34240131937091428</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AJ29" s="4">
         <f t="shared" si="12"/>
         <v>1.4154422899668373E-2</v>
       </c>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="11">
+      <c r="C30" s="7"/>
+      <c r="D30" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>2.4094170266862655E-2</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>1.2374678927495105E-2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <f t="shared" si="3"/>
         <v>0.1681487212257062</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <f t="shared" si="14"/>
         <v>5.0444616367711852</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <f t="shared" si="13"/>
         <v>41.10132010188272</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="4">
         <v>41.832180000000001</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="4">
         <f t="shared" si="4"/>
         <v>0.53415619067600195</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
         <f t="shared" si="2"/>
         <v>0.18160061892376272</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="4">
         <v>24.735714285714309</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="4">
         <v>20.2</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="4">
         <v>0.80137857142857105</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="4">
         <f t="shared" si="6"/>
         <v>1.9001605424881858</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="4">
         <f t="shared" si="7"/>
         <v>0.47095419683018647</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30" s="4">
         <f t="shared" si="15"/>
         <v>0.15128493854070688</v>
       </c>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="7">
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4">
         <f t="shared" si="8"/>
         <v>0.14265247045077659</v>
       </c>
-      <c r="AD30" s="11">
+      <c r="AD30" s="4">
         <f t="shared" si="9"/>
         <v>7.5785803157389804</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AE30" s="4">
         <f t="shared" si="10"/>
         <v>5.7354559127966445</v>
       </c>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="7">
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4">
         <f t="shared" si="11"/>
         <v>0.52377572197498212</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="AI30" s="4">
         <v>0.41554447854243987</v>
       </c>
-      <c r="AJ30" s="7">
+      <c r="AJ30" s="4">
         <f t="shared" si="12"/>
         <v>1.1714002054954221E-2</v>
       </c>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11">
+      <c r="C31" s="7"/>
+      <c r="D31" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>2.7105941550220489E-2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>1.3056679472758096E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <f t="shared" si="3"/>
         <v>0.17741583193080956</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <f>MWc*G31/BCF</f>
         <v>5.3224749579242863</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <f t="shared" si="13"/>
         <v>46.423795059807006</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="4">
         <v>54.976320000000001</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="4">
         <f t="shared" si="4"/>
         <v>73.145682852623196</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4">
         <f t="shared" si="2"/>
         <v>0.19160909848527435</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="4">
         <v>24.735714285714288</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="4">
         <v>20.2</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="4">
         <v>0.80674999999999897</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="4">
         <f t="shared" si="6"/>
         <v>1.9128968159450943</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="4">
         <f t="shared" si="7"/>
         <v>0.45821792337327788</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31" s="4">
         <f t="shared" si="15"/>
         <v>0.16889958970189076</v>
       </c>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="7">
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4">
         <f t="shared" si="8"/>
         <v>0.15821088806937508</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AD31" s="4">
         <f t="shared" si="9"/>
         <v>8.5259028552063523</v>
       </c>
-      <c r="AE31" s="11">
+      <c r="AE31" s="4">
         <f t="shared" si="10"/>
         <v>6.316375408283843</v>
       </c>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="7">
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4">
         <f t="shared" si="11"/>
         <v>0.56519177969079359</v>
       </c>
-      <c r="AI31" s="7">
+      <c r="AI31" s="4">
         <v>0.55141679620200101</v>
       </c>
-      <c r="AJ31" s="7">
+      <c r="AJ31" s="4">
         <f t="shared" si="12"/>
         <v>1.8975017011650821E-4</v>
       </c>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="11">
+      <c r="C32" s="7"/>
+      <c r="D32" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>3.0117712833578319E-2</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>1.3738680018021088E-2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="4">
         <f t="shared" si="3"/>
         <v>0.18668294263591287</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <f t="shared" si="14"/>
         <v>5.6004882790773856</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <f t="shared" si="13"/>
         <v>52.024283338884388</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="4">
         <v>58.521419999999999</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="4">
         <f t="shared" si="4"/>
         <v>42.212784793212514</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4">
         <f t="shared" si="2"/>
         <v>0.2016175780467859</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="4">
         <v>24.072395833333324</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="4">
         <v>20.2</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="4">
         <v>0.82993177083333303</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="4">
         <f t="shared" si="6"/>
         <v>1.9678634544515134</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="4">
         <f t="shared" si="7"/>
         <v>0.40325128486685874</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32" s="4">
         <f t="shared" si="15"/>
         <v>0.19523317899557222</v>
       </c>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="7">
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4">
         <f t="shared" si="8"/>
         <v>0.18109117656039822</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AD32" s="4">
         <f t="shared" si="9"/>
         <v>9.4732253946737242</v>
       </c>
-      <c r="AE32" s="11">
+      <c r="AE32" s="4">
         <f t="shared" si="10"/>
         <v>6.8972949037710398</v>
       </c>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="7">
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4">
         <f t="shared" si="11"/>
         <v>0.56932525040281257</v>
       </c>
-      <c r="AI32" s="7">
+      <c r="AI32" s="4">
         <v>0.66049051289871319</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AJ32" s="4">
         <f t="shared" si="12"/>
         <v>8.3111050859464644E-3</v>
       </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33">
         <v>12</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="11">
+      <c r="C33" s="7"/>
+      <c r="D33" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>3.3129484116936149E-2</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>1.4420680563284077E-2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <f t="shared" si="3"/>
         <v>0.19595005334101614</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <f t="shared" si="14"/>
         <v>5.878501600230484</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <f t="shared" si="13"/>
         <v>57.902784939114873</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="4">
         <v>58.257109999999997</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <f t="shared" si="4"/>
         <v>0.1255462487712467</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4">
         <f t="shared" si="2"/>
         <v>0.21162605760829745</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="4">
         <v>23.925520833333344</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="4">
         <v>20.2</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="4">
         <v>0.79391666666666605</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="4">
         <f t="shared" si="6"/>
         <v>1.8824675101238428</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="4">
         <f t="shared" si="7"/>
         <v>0.48864722919452935</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="4">
         <f t="shared" si="15"/>
         <v>0.19348481542771923</v>
       </c>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="7">
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4">
         <f t="shared" si="8"/>
         <v>0.1795859534082748</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AD33" s="4">
         <f t="shared" si="9"/>
         <v>10.420547934141098</v>
       </c>
-      <c r="AE33" s="11">
+      <c r="AE33" s="4">
         <f t="shared" si="10"/>
         <v>7.4782143992582357</v>
       </c>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="7">
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4">
         <f t="shared" si="11"/>
         <v>0.68415609565602264</v>
       </c>
-      <c r="AI33" s="7">
+      <c r="AI33" s="4">
         <v>0.72870398834997696</v>
       </c>
-      <c r="AJ33" s="7">
+      <c r="AJ33" s="4">
         <f t="shared" si="12"/>
         <v>1.9845147434720684E-3</v>
       </c>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="11">
+      <c r="C34" s="7"/>
+      <c r="D34" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>3.6141255400293983E-2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>1.5102681108547067E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="4">
         <f t="shared" si="3"/>
         <v>0.20521716404611948</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="4">
         <f t="shared" si="14"/>
         <v>6.1565149213835841</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <f t="shared" si="13"/>
         <v>64.059299860498456</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="4">
         <v>65.993399999999994</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="4">
         <f t="shared" si="4"/>
         <v>3.7407433496198697</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
         <f t="shared" si="2"/>
         <v>0.22163453716980905</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="4">
         <v>23.834895833333345</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="4">
         <v>20.2</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="4">
         <v>0.798875</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="4">
         <f t="shared" si="6"/>
         <v>1.8942242873729647</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="4">
         <f t="shared" si="7"/>
         <v>0.47689045194540763</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z34" s="4">
         <f t="shared" si="15"/>
         <v>0.211214099917478</v>
       </c>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="7">
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4">
         <f t="shared" si="8"/>
         <v>0.19475970186558375</v>
       </c>
-      <c r="AD34" s="11">
+      <c r="AD34" s="4">
         <f t="shared" si="9"/>
         <v>11.36787047360847</v>
       </c>
-      <c r="AE34" s="11">
+      <c r="AE34" s="4">
         <f t="shared" si="10"/>
         <v>8.0591338947454325</v>
       </c>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="7">
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4">
         <f t="shared" si="11"/>
         <v>0.72411096508686124</v>
       </c>
-      <c r="AI34" s="7">
+      <c r="AI34" s="4">
         <v>0.90699711485302936</v>
       </c>
-      <c r="AJ34" s="7">
+      <c r="AJ34" s="4">
         <f t="shared" si="12"/>
         <v>3.3447343776293277E-2</v>
       </c>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35">
         <v>12</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="11">
+      <c r="C35" s="7"/>
+      <c r="D35" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>3.9153026683651816E-2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>1.5784681653810057E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="4">
         <f t="shared" si="3"/>
         <v>0.21448427475122275</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="4">
         <f t="shared" si="14"/>
         <v>6.4345282425366817</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <f t="shared" si="13"/>
         <v>70.493828103035142</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="4">
         <v>72.374580000000009</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="4">
         <f t="shared" si="4"/>
         <v>3.5372276979369452</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
         <f t="shared" si="2"/>
         <v>0.23164301673132059</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="4">
         <v>23.887500000000017</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="4">
         <v>20.2</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="4">
         <v>0.80637499999999895</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="4">
         <f t="shared" si="6"/>
         <v>1.9120076479178498</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="4">
         <f t="shared" si="7"/>
         <v>0.4591070914005223</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35" s="4">
         <f t="shared" si="15"/>
         <v>0.23081578645506209</v>
       </c>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="7">
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4">
         <f t="shared" si="8"/>
         <v>0.21130662456244406</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AD35" s="4">
         <f t="shared" si="9"/>
         <v>12.315193013075843</v>
       </c>
-      <c r="AE35" s="11">
+      <c r="AE35" s="4">
         <f t="shared" si="10"/>
         <v>8.6400533902326284</v>
       </c>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="7">
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4">
         <f t="shared" si="11"/>
         <v>0.75633554160270333</v>
       </c>
-      <c r="AI35" s="7">
+      <c r="AI35" s="4">
         <v>0.84316048160243096</v>
       </c>
-      <c r="AJ35" s="7">
+      <c r="AJ35" s="4">
         <f t="shared" si="12"/>
         <v>7.538570205956302E-3</v>
       </c>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="11">
+      <c r="C36" s="7"/>
+      <c r="D36" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>4.2164797967009643E-2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="4">
         <f t="shared" si="1"/>
         <v>1.6466682199073046E-2</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="4">
         <f t="shared" si="3"/>
         <v>0.22375138545632606</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="4">
         <f t="shared" si="14"/>
         <v>6.7125415636897818</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <f t="shared" si="13"/>
         <v>77.206369666724925</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="4">
         <v>78.755760000000009</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="4">
         <f t="shared" si="4"/>
         <v>2.4006104048462782</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
         <f t="shared" si="2"/>
         <v>0.24165149629283217</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="4">
         <v>23.580729166666671</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="4">
         <v>20.2</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="4">
         <v>0.81183854166666602</v>
       </c>
-      <c r="X36" s="7">
+      <c r="X36" s="4">
         <f t="shared" si="6"/>
         <v>1.9249623320925644</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Y36" s="4">
         <f t="shared" si="7"/>
         <v>0.44615240722580796</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="4">
         <f t="shared" si="15"/>
         <v>0.24973768024694104</v>
       </c>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="7">
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4">
         <f t="shared" si="8"/>
         <v>0.22705591340672293</v>
       </c>
-      <c r="AD36" s="11">
+      <c r="AD36" s="4">
         <f t="shared" si="9"/>
         <v>13.262515552543213</v>
       </c>
-      <c r="AE36" s="11">
+      <c r="AE36" s="4">
         <f t="shared" si="10"/>
         <v>9.2209728857198243</v>
       </c>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="7">
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4">
         <f t="shared" si="11"/>
         <v>0.7897751292187577</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="AI36" s="4">
         <v>0.82692059515782901</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AJ36" s="4">
         <f t="shared" si="12"/>
         <v>1.3797856398307068E-3</v>
       </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="11">
+      <c r="C37" s="7"/>
+      <c r="D37" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <f t="shared" si="13"/>
         <v>84.196924551567804</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="4">
         <v>83.228039999999993</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="4">
         <f t="shared" si="4"/>
         <v>0.93873727426675835</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="4">
         <v>23.876041666666673</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="4">
         <v>20.2</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="4">
         <v>0.81319270833333301</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="4">
         <f t="shared" si="6"/>
         <v>1.928173216635392</v>
       </c>
-      <c r="Y37" s="7">
+      <c r="Y37" s="4">
         <f t="shared" si="7"/>
         <v>0.4429415226829802</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z37" s="4">
         <f t="shared" si="15"/>
         <v>0.26636765336941759</v>
       </c>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="7">
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4">
         <f t="shared" si="8"/>
         <v>0.2407196789669149</v>
       </c>
-      <c r="AD37" s="11">
+      <c r="AD37" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE37" s="11">
+      <c r="AE37" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="7">
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4">
         <f t="shared" si="11"/>
         <v>0.83127627444360341</v>
       </c>
-      <c r="AI37" s="7">
+      <c r="AI37" s="4">
         <v>0.79641445176807313</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AJ37" s="4">
         <f t="shared" si="12"/>
         <v>1.2153466802601175E-3</v>
       </c>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="11">
+      <c r="C38" s="7"/>
+      <c r="D38" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <f t="shared" si="13"/>
         <v>91.187479436410683</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="4">
         <v>97.981109999999987</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="4">
         <f t="shared" si="4"/>
         <v>46.153416234534717</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="4">
         <v>24.091666666666661</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="4">
         <v>20.2</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="4">
         <v>0.81558854166666594</v>
       </c>
-      <c r="X38" s="7">
+      <c r="X38" s="4">
         <f t="shared" si="6"/>
         <v>1.9338540123650081</v>
       </c>
-      <c r="Y38" s="7">
+      <c r="Y38" s="4">
         <f t="shared" si="7"/>
         <v>0.43726072695336426</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z38" s="4">
         <f t="shared" si="15"/>
         <v>0.2679538535314151</v>
       </c>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="7">
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4">
         <f>gA*Z38/(gA+Z38)</f>
         <v>0.24201437931267697</v>
       </c>
-      <c r="AD38" s="11">
+      <c r="AD38" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE38" s="11">
+      <c r="AE38" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="7">
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4">
         <f t="shared" si="11"/>
         <v>0.82502866582593459</v>
       </c>
-      <c r="AI38" s="7">
+      <c r="AI38" s="4">
         <v>0.80796578724955048</v>
       </c>
-      <c r="AJ38" s="7">
+      <c r="AJ38" s="4">
         <f t="shared" si="12"/>
         <v>2.9114182531242785E-4</v>
       </c>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="11">
+      <c r="C39" s="7"/>
+      <c r="D39" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <f t="shared" si="13"/>
         <v>98.178034321253563</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="4">
         <v>102.88970999999999</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="4">
         <f t="shared" si="4"/>
         <v>22.199887701690642</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="4">
         <v>24.211458333333336</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="4">
         <v>20.2</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="4">
         <v>0.81979687499999998</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="4">
         <f t="shared" si="6"/>
         <v>1.9438324535596412</v>
       </c>
-      <c r="Y39" s="7">
+      <c r="Y39" s="4">
         <f t="shared" si="7"/>
         <v>0.42728228575873112</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z39" s="4">
         <f>((1.717*U39)-19.96-(10.54*Y39))*(AE39/370)</f>
         <v>0.27074004859857681</v>
       </c>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="7">
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4">
         <f t="shared" si="8"/>
         <v>0.24428495983908291</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AD39" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AE39" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="7">
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4">
         <f t="shared" si="11"/>
         <v>0.81376501129586498</v>
       </c>
-      <c r="AI39" s="7">
+      <c r="AI39" s="4">
         <v>0.81549828469142993</v>
       </c>
-      <c r="AJ39" s="7">
+      <c r="AJ39" s="4">
         <f t="shared" si="12"/>
         <v>3.0042366637732493E-6</v>
       </c>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="11">
+      <c r="C40" s="7"/>
+      <c r="D40" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="4">
         <f t="shared" si="13"/>
         <v>105.16858920609644</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="4">
         <v>109.54358999999999</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="4">
         <f t="shared" si="4"/>
         <v>19.140631946656715</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="4">
         <v>24.03125</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="4">
         <v>20.2</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W40" s="7">
+      <c r="W40" s="4">
         <v>0.81954166666666595</v>
       </c>
-      <c r="X40" s="7">
+      <c r="X40" s="4">
         <f t="shared" si="6"/>
         <v>1.9432273253188759</v>
       </c>
-      <c r="Y40" s="7">
+      <c r="Y40" s="4">
         <f t="shared" si="7"/>
         <v>0.42788741399949631</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z40" s="4">
         <f t="shared" si="15"/>
         <v>0.27057108379871142</v>
       </c>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="7">
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4">
         <f t="shared" si="8"/>
         <v>0.24414739381793196</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AD40" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE40" s="11">
+      <c r="AE40" s="4">
         <f>(E40*(24-B40)/24+B40*F40/24)*D40</f>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="7">
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4">
         <f t="shared" si="11"/>
         <v>0.81445857578881375</v>
       </c>
-      <c r="AI40" s="7">
+      <c r="AI40" s="4">
         <v>0.82364203832008109</v>
       </c>
-      <c r="AJ40" s="7">
+      <c r="AJ40" s="4">
         <f t="shared" si="12"/>
         <v>8.4335984063191121E-5</v>
       </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="11">
+      <c r="C41" s="7"/>
+      <c r="D41" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <f t="shared" si="13"/>
         <v>112.15914409093932</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="4">
         <v>112.62510000000002</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="4">
         <f t="shared" si="4"/>
         <v>0.21711490918857976</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="4">
         <v>23.730208333333302</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="4">
         <v>20.2</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="4">
         <v>0.794875</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="4">
         <f t="shared" si="6"/>
         <v>1.8847398284156911</v>
       </c>
-      <c r="Y41" s="7">
+      <c r="Y41" s="4">
         <f>V41*(1-W41)</f>
         <v>0.48637491090268109</v>
       </c>
-      <c r="Z41" s="11">
+      <c r="Z41" s="4">
         <f>((1.717*U41)-19.96-(10.54*Y41))*(AE41/370)</f>
         <v>0.25424011865257845</v>
       </c>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="7">
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4">
         <f>gA*Z41/(gA+Z41)</f>
         <v>0.23077156284485198</v>
       </c>
-      <c r="AD41" s="11">
+      <c r="AD41" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE41" s="11">
+      <c r="AE41" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="7">
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4">
         <f t="shared" si="11"/>
         <v>0.87506608279281128</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="AI41" s="4">
         <v>0.72469457130629278</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AJ41" s="4">
         <f t="shared" si="12"/>
         <v>2.2611591466740168E-2</v>
       </c>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>21</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="11">
+      <c r="C42" s="7"/>
+      <c r="D42" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <f t="shared" si="13"/>
         <v>119.1496989757822</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="4">
         <v>113.93406000000002</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="4">
         <f t="shared" si="4"/>
         <v>27.20288992569823</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="4">
         <v>24.016666666666687</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="4">
         <v>20.2</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="4">
         <v>0.81109047619047503</v>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="4">
         <f t="shared" si="6"/>
         <v>1.9231885830159927</v>
       </c>
-      <c r="Y42" s="7">
+      <c r="Y42" s="4">
         <f t="shared" si="7"/>
         <v>0.44792615630237964</v>
       </c>
-      <c r="Z42" s="11">
+      <c r="Z42" s="4">
         <f t="shared" si="15"/>
         <v>0.26497583661857588</v>
       </c>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="7">
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4">
         <f t="shared" si="8"/>
         <v>0.23958241615469938</v>
       </c>
-      <c r="AD42" s="11">
+      <c r="AD42" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE42" s="11">
+      <c r="AE42" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="7">
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4">
         <f t="shared" si="11"/>
         <v>0.83665952464458426</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="AI42" s="4">
         <v>0.72273520787815815</v>
       </c>
-      <c r="AJ42" s="7">
+      <c r="AJ42" s="4">
         <f t="shared" si="12"/>
         <v>1.2978749950696998E-2</v>
       </c>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22</v>
       </c>
       <c r="B43">
         <v>12</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="11">
+      <c r="C43" s="7"/>
+      <c r="D43" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="4">
         <f t="shared" si="14"/>
         <v>6.990554884842882</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <f t="shared" si="13"/>
         <v>126.14025386062508</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="4">
         <v>116.77014000000001</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="4">
         <f t="shared" si="4"/>
         <v>87.799033761078022</v>
       </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="4">
         <v>24.016666666666687</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="4">
         <v>20.2</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="4">
         <v>0.81109047619047503</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="4">
         <f t="shared" si="6"/>
         <v>1.9231885830159927</v>
       </c>
-      <c r="Y43" s="7">
+      <c r="Y43" s="4">
         <f t="shared" si="7"/>
         <v>0.44792615630237964</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z43" s="4">
         <f t="shared" si="15"/>
         <v>0.26497583661857588</v>
       </c>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="7">
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4">
         <f t="shared" si="8"/>
         <v>0.23958241615469938</v>
       </c>
-      <c r="AD43" s="11">
+      <c r="AD43" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE43" s="11">
+      <c r="AE43" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="7">
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4">
         <f t="shared" si="11"/>
         <v>0.83665952464458426</v>
       </c>
-      <c r="AI43" s="7">
+      <c r="AI43" s="4">
         <v>0.87955668008968224</v>
       </c>
-      <c r="AJ43" s="7">
+      <c r="AJ43" s="4">
         <f t="shared" si="12"/>
         <v>1.8401659452808991E-3</v>
       </c>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="11">
+      <c r="C44" s="7"/>
+      <c r="D44" s="4">
         <v>314.54000000000002</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="4">
         <f t="shared" si="0"/>
         <v>4.5176569250367477E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
         <f t="shared" si="1"/>
         <v>1.7148682744336039E-2</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="4">
         <f t="shared" si="3"/>
         <v>0.23301849616142942</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="4">
         <f>MWc*G44/BCF</f>
         <v>6.990554884842882</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <f t="shared" si="13"/>
         <v>133.13080874546796</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="4">
         <v>132.28677000000002</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="4">
         <f t="shared" si="4"/>
         <v>0.71240140385109574</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
         <f t="shared" si="2"/>
         <v>0.2516599758543438</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="4">
         <v>24.016666666666701</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="4">
         <v>20.2</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="4">
         <f t="shared" si="5"/>
         <v>2.3711147393183722</v>
       </c>
-      <c r="W44" s="7">
+      <c r="W44" s="4">
         <v>0.81109047619047503</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="4">
         <f t="shared" si="6"/>
         <v>1.9231885830159927</v>
       </c>
-      <c r="Y44" s="7">
+      <c r="Y44" s="4">
         <f>V44*(1-W44)</f>
         <v>0.44792615630237964</v>
       </c>
-      <c r="Z44" s="19">
+      <c r="Z44" s="12">
         <f>((1.717*U44)-19.96-(10.54*Y44))*(AE44/370)</f>
         <v>0.26497583661857588</v>
       </c>
-      <c r="AA44" s="19">
+      <c r="AA44" s="12">
         <v>0.18999999000000001</v>
       </c>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="7">
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4">
         <f t="shared" si="8"/>
         <v>0.23958241615469938</v>
       </c>
-      <c r="AD44" s="11">
+      <c r="AD44" s="4">
         <f t="shared" si="9"/>
         <v>14.209838092010587</v>
       </c>
-      <c r="AE44" s="11">
+      <c r="AE44" s="4">
         <f t="shared" si="10"/>
         <v>9.801892381207022</v>
       </c>
-      <c r="AF44" s="20">
+      <c r="AF44" s="13">
         <v>7.3055555555555598</v>
       </c>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="7">
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4">
         <f t="shared" si="11"/>
         <v>0.83665952464458426</v>
       </c>
-      <c r="AI44" s="7">
+      <c r="AI44" s="4">
         <v>0.93796983000000089</v>
       </c>
-      <c r="AJ44" s="7">
+      <c r="AJ44" s="4">
         <f t="shared" si="12"/>
         <v>1.026377797120776E-2</v>
       </c>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="V45" s="3"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="25" t="s">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="AH45" s="25">
+      <c r="AH45" s="18">
         <f>STDEV(AH22:AH44)</f>
         <v>0.25658471316263065</v>
       </c>
-      <c r="AI45" s="25">
+      <c r="AI45" s="18">
         <f>STDEV(AI22:AI44)</f>
         <v>0.27303475719087394</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="H46" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <f>SUM(K46+AJ46*1000)</f>
         <v>90.460814203126432</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="4">
         <f>AVERAGE(K22:K44)^0.5</f>
         <v>4.4561920357184786</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="7" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="4">
         <f>AA46*10+AF46+AJ46*10</f>
         <v>4.1061415135113002</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="19" t="s">
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AA46" s="19">
+      <c r="AA46" s="12">
         <f>-(AA44-Z44)</f>
         <v>7.497584661857587E-2</v>
       </c>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="19" t="s">
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AF46" s="19">
+      <c r="AF46" s="12">
         <f>-(AF44-AE44)</f>
         <v>2.4963368256514622</v>
       </c>
-      <c r="AG46" s="25" t="s">
+      <c r="AG46" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="AH46" s="26">
+      <c r="AH46" s="18">
         <f>AH45/SQRT(23)</f>
         <v>5.350161112110853E-2</v>
       </c>
-      <c r="AI46" s="7" t="s">
+      <c r="AI46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AJ46" s="7">
+      <c r="AJ46" s="4">
         <f>AVERAGE(AJ22:AJ44)^0.5</f>
         <v>8.6004622167407965E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="J47" t="s">
         <v>137</v>
       </c>
-      <c r="K47" s="7" t="e" cm="1">
+      <c r="K47" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">(AVERAGE(I22:I44)-MED\IA(J22:J44))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47" s="11"/>
+      <c r="AG47" s="4"/>
       <c r="AI47" t="s">
         <v>137</v>
       </c>
-      <c r="AJ47" s="12">
+      <c r="AJ47" s="7">
         <f>(AVERAGE(AH22:AH44)-AVERAGE(AI22:AI44))</f>
         <v>7.5652112680535399E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
         <v>135</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="4">
         <f>CORREL(I22:I44,J22:J44)</f>
         <v>0.99362031428834907</v>
       </c>
       <c r="AI48" t="s">
         <v>135</v>
       </c>
-      <c r="AJ48" s="12">
+      <c r="AJ48" s="7">
         <f>CORREL(AH22:AH44,AI22:AI44)</f>
         <v>0.94674437115063359</v>
       </c>
     </row>
-    <row r="49" spans="8:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:36" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
         <v>149</v>
       </c>
@@ -18361,28 +18337,28 @@
         <v>5.1032997225601449</v>
       </c>
     </row>
-    <row r="50" spans="8:36" x14ac:dyDescent="0.25">
-      <c r="H50" s="24" t="s">
+    <row r="50" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="H50" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="17">
         <f>STDEV(I22:I44)</f>
         <v>39.568170195402764</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="17">
         <f>STDEV(J22:J44)</f>
         <v>40.21583923701256</v>
       </c>
     </row>
-    <row r="51" spans="8:36" x14ac:dyDescent="0.25">
-      <c r="H51" s="24" t="s">
+    <row r="51" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="H51" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="17">
         <f>I50/SQRT(23)</f>
         <v>8.2505338236050179</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="J51" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18394,25 +18370,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0C39E8-CD35-4239-B1F2-1B8B8319E376}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX116" sqref="AX116"/>
-    </sheetView>
+    <sheetView topLeftCell="CK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -18438,15 +18413,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="16"/>
       <c r="AB2" t="s">
         <v>111</v>
       </c>
@@ -18460,7 +18433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -18486,17 +18459,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1.0880999488990712</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="4">
         <v>2.7916141485769558E-2</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="4">
         <v>8.5355100000000004</v>
       </c>
       <c r="AV4">
@@ -18510,17 +18483,17 @@
         <v>0.21667165999999899</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>1.669019444386268</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="4">
         <v>4.6707020353983712E-2</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="4">
         <v>11.628368388699492</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="4">
         <v>10.608029999999999</v>
       </c>
       <c r="AV5">
@@ -18534,17 +18507,17 @@
         <v>0.24396708372524753</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2.249938939873465</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="4">
         <v>6.1507488631663478E-2</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="4">
         <v>15.004750098552083</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="4">
         <v>13.44411</v>
       </c>
       <c r="AV6">
@@ -18558,17 +18531,17 @@
         <v>0.11010212049717268</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>2.8308584353606614</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="4">
         <v>7.8888403823706973E-2</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="4">
         <v>18.659145129557775</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="4">
         <v>14.834879999999998</v>
       </c>
       <c r="AV7">
@@ -18582,17 +18555,17 @@
         <v>0.17715052756768032</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>3.4117779308478582</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="4">
         <v>9.1938589302220097E-2</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="4">
         <v>22.591553481716566</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="4">
         <v>17.207369999999997</v>
       </c>
       <c r="AV8">
@@ -18606,17 +18579,17 @@
         <v>0.28430573375270429</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>3.992697426335055</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="4">
         <v>0.10892524251385043</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="4">
         <v>26.801975155028455</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="4">
         <v>24.379379999999998</v>
       </c>
       <c r="AV9">
@@ -18630,17 +18603,17 @@
         <v>0.36436441630564753</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>4.5736169218222518</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="4">
         <v>0.12183492186746975</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="4">
         <v>31.290410149493443</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="4">
         <v>27.324540000000002</v>
       </c>
       <c r="AV10">
@@ -18654,17 +18627,17 @@
         <v>0.34191337145474787</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>5.1545364173094477</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="4">
         <v>0.13922554418705291</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="4">
         <v>36.056858465111532</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="4">
         <v>28.442610000000002</v>
       </c>
       <c r="AV11">
@@ -18678,17 +18651,17 @@
         <v>0.34240131937091428</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>5.7354559127966445</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="4">
         <v>0.15128493854070688</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="4">
         <v>41.10132010188272</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="4">
         <v>41.832180000000001</v>
       </c>
       <c r="AV12">
@@ -18702,17 +18675,17 @@
         <v>0.41554447854243987</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>6.316375408283843</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="4">
         <v>0.16889958970189076</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="4">
         <v>46.423795059807006</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="4">
         <v>54.976320000000001</v>
       </c>
       <c r="AV13">
@@ -18726,17 +18699,17 @@
         <v>0.55141679620200101</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>6.8972949037710398</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="4">
         <v>0.19523317899557222</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="4">
         <v>52.024283338884388</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="4">
         <v>58.521419999999999</v>
       </c>
       <c r="AV14">
@@ -18750,17 +18723,17 @@
         <v>0.66049051289871319</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>7.4782143992582357</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="4">
         <v>0.19348481542771923</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="4">
         <v>57.902784939114873</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="4">
         <v>58.257109999999997</v>
       </c>
       <c r="AV15">
@@ -18774,17 +18747,17 @@
         <v>0.72870398834997696</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>8.0591338947454325</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="4">
         <v>0.211214099917478</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="4">
         <v>64.059299860498456</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="4">
         <v>65.993399999999994</v>
       </c>
       <c r="AV16">
@@ -18798,17 +18771,17 @@
         <v>0.90699711485302936</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>8.6400533902326284</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="4">
         <v>0.23081578645506209</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="4">
         <v>70.493828103035142</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="4">
         <v>72.374580000000009</v>
       </c>
       <c r="AV17">
@@ -18822,17 +18795,17 @@
         <v>0.84316048160243096</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>9.2209728857198243</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="4">
         <v>0.24973768024694104</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="4">
         <v>77.206369666724925</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="4">
         <v>78.755760000000009</v>
       </c>
       <c r="AV18">
@@ -18846,17 +18819,17 @@
         <v>0.82692059515782901</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="4">
         <v>0.26636765336941759</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="4">
         <v>84.196924551567804</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="4">
         <v>83.228039999999993</v>
       </c>
       <c r="AV19">
@@ -18870,17 +18843,17 @@
         <v>0.79641445176807313</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="4">
         <v>0.2679538535314151</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="4">
         <v>91.187479436410683</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="4">
         <v>97.981109999999987</v>
       </c>
       <c r="AV20">
@@ -18894,17 +18867,17 @@
         <v>0.80796578724955048</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="4">
         <v>0.27074004859857681</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="4">
         <v>98.178034321253563</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="4">
         <v>102.88970999999999</v>
       </c>
       <c r="AV21">
@@ -18918,20 +18891,17 @@
         <v>0.81549828469142993</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="Q22" s="11">
+      <c r="Q22" s="4">
         <v>0.27057108379871142</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="4">
         <v>105.16858920609644</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="4">
         <v>109.54358999999999</v>
       </c>
       <c r="AV22">
@@ -18945,20 +18915,19 @@
         <v>0.82364203832008109</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="3"/>
-      <c r="Q23" s="11">
+      <c r="B23" s="4"/>
+      <c r="C23" s="15"/>
+      <c r="Q23" s="4">
         <v>0.25424011865257845</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="4">
         <v>112.15914409093932</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="4">
         <v>112.62510000000002</v>
       </c>
       <c r="AV23">
@@ -18972,20 +18941,17 @@
         <v>0.72469457130629278</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="Q24" s="11">
+      <c r="Q24" s="4">
         <v>0.26497583661857588</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="4">
         <v>119.1496989757822</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC24" s="4">
         <v>113.93406000000002</v>
       </c>
       <c r="AV24">
@@ -18999,17 +18965,17 @@
         <v>0.72273520787815815</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="4">
         <v>0.26497583661857588</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="4">
         <v>126.14025386062508</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="4">
         <v>116.77014000000001</v>
       </c>
       <c r="AV25">
@@ -19023,23 +18989,23 @@
         <v>0.87955668008968224</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>9.801892381207022</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="15">
         <v>7.3055555555555598</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="4">
         <v>0.26497583661857588</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="4">
         <v>0.18999999000000001</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="4">
         <v>133.13080874546796</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="4">
         <v>132.28677000000002</v>
       </c>
       <c r="AV26">
@@ -19053,19 +19019,16 @@
         <v>0.93796983000000089</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AW28" s="3"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q29" s="3" t="s">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="Q29" t="s">
         <v>104</v>
       </c>
       <c r="AB29" t="s">
         <v>35</v>
       </c>
-      <c r="AW29" s="5"/>
+      <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -19091,17 +19054,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q31">
         <v>0.11702647453029638</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AB31" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AC31" s="4">
         <v>6.719328</v>
       </c>
       <c r="AW31">
@@ -19111,17 +19074,17 @@
         <v>0.28342044</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q32">
         <v>0.12764925585039091</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB32" s="4">
         <v>11.380051200223924</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AC32" s="4">
         <v>6.9102179999999986</v>
       </c>
       <c r="AW32">
@@ -19131,17 +19094,17 @@
         <v>0.265082522747562</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q33">
         <v>0.12469664934439116</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="4">
         <v>14.23010240044785</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="4">
         <v>8.3282579999999999</v>
       </c>
       <c r="AW33">
@@ -19151,17 +19114,17 @@
         <v>0.30455447789464951</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q34">
         <v>0.12711375206172493</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="4">
         <v>17.080153600671775</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="4">
         <v>11.709737999999998</v>
       </c>
       <c r="AW34">
@@ -19171,17 +19134,17 @@
         <v>0.39055320274791633</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q35">
         <v>0.12291774977245368</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="4">
         <v>19.930204800895702</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="4">
         <v>12.446027999999998</v>
       </c>
       <c r="AW35">
@@ -19191,17 +19154,17 @@
         <v>0.50018670798179132</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q36">
         <v>0.1244399009525652</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AB36" s="4">
         <v>22.780256001119628</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AC36" s="4">
         <v>13.727717999999999</v>
       </c>
       <c r="AW36">
@@ -19211,17 +19174,17 @@
         <v>0.51932121458109304</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.5613933079241846</v>
       </c>
       <c r="Q37">
         <v>0.12150930145157891</v>
       </c>
-      <c r="AB37" s="7">
+      <c r="AB37" s="4">
         <v>25.630307201343555</v>
       </c>
-      <c r="AC37" s="7">
+      <c r="AC37" s="4">
         <v>19.127178000000001</v>
       </c>
       <c r="AW37">
@@ -19231,17 +19194,17 @@
         <v>0.61694167324257654</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6.0662597336253468</v>
       </c>
       <c r="Q38">
         <v>0.16385145902894724</v>
       </c>
-      <c r="AB38" s="7">
+      <c r="AB38" s="4">
         <v>31.153653967431257</v>
       </c>
-      <c r="AC38" s="7">
+      <c r="AC38" s="4">
         <v>20.954267999999999</v>
       </c>
       <c r="AW38">
@@ -19251,17 +19214,17 @@
         <v>0.6402037524450821</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6.2812406515826549</v>
       </c>
       <c r="Q39">
         <v>0.16568118042959903</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AB39" s="4">
         <v>37.058900100070929</v>
       </c>
-      <c r="AC39" s="7">
+      <c r="AC39" s="4">
         <v>36.007308000000002</v>
       </c>
       <c r="AW39">
@@ -19271,17 +19234,17 @@
         <v>0.62374892881502342</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.4962215695399648</v>
       </c>
       <c r="Q40">
         <v>0.17370866783327943</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AB40" s="4">
         <v>43.346045599262567</v>
       </c>
-      <c r="AC40" s="7">
+      <c r="AC40" s="4">
         <v>42.088518000000001</v>
       </c>
       <c r="AW40">
@@ -19291,17 +19254,17 @@
         <v>0.56606073628844134</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>6.7112024874972729</v>
       </c>
       <c r="Q41">
         <v>0.18996569159319496</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AB41" s="4">
         <v>50.015090465006175</v>
       </c>
-      <c r="AC41" s="7">
+      <c r="AC41" s="4">
         <v>46.778958000000003</v>
       </c>
       <c r="AW41">
@@ -19311,17 +19274,17 @@
         <v>0.47364196708314749</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6.9261834054545828</v>
       </c>
       <c r="Q42">
         <v>0.17920204560541048</v>
       </c>
-      <c r="AB42" s="7">
+      <c r="AB42" s="4">
         <v>57.066034697301752</v>
       </c>
-      <c r="AC42" s="7">
+      <c r="AC42" s="4">
         <v>60.986627999999996</v>
       </c>
       <c r="AW42">
@@ -19331,17 +19294,17 @@
         <v>0.4086356992000037</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7.14116432341189</v>
       </c>
       <c r="Q43">
         <v>0.18715591707884036</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AB43" s="4">
         <v>64.4988782961493</v>
       </c>
-      <c r="AC43" s="7">
+      <c r="AC43" s="4">
         <v>71.076527999999996</v>
       </c>
       <c r="AW43">
@@ -19351,17 +19314,17 @@
         <v>0.592452942098596</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7.3561452413691999</v>
       </c>
       <c r="Q44">
         <v>0.19651666170069571</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AB44" s="4">
         <v>72.313621261548818</v>
       </c>
-      <c r="AC44" s="7">
+      <c r="AC44" s="4">
         <v>85.475088</v>
       </c>
       <c r="AW44">
@@ -19371,17 +19334,17 @@
         <v>0.70488258983948515</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7.5711261593265089</v>
       </c>
       <c r="Q45">
         <v>0.20505379500847887</v>
       </c>
-      <c r="AB45" s="7">
+      <c r="AB45" s="4">
         <v>80.510263593500298</v>
       </c>
-      <c r="AC45" s="7">
+      <c r="AC45" s="4">
         <v>90.738198000000011</v>
       </c>
       <c r="AW45">
@@ -19391,17 +19354,17 @@
         <v>0.56177252482741113</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q46">
         <v>0.21158843521231488</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AB46" s="4">
         <v>89.088805292003741</v>
       </c>
-      <c r="AC46" s="7">
+      <c r="AC46" s="4">
         <v>98.101098000000007</v>
       </c>
       <c r="AW46">
@@ -19411,17 +19374,17 @@
         <v>0.63992046933156943</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q47">
         <v>0.2128484290815596</v>
       </c>
-      <c r="AB47" s="7">
+      <c r="AB47" s="4">
         <v>97.667346990507184</v>
       </c>
-      <c r="AC47" s="7">
+      <c r="AC47" s="4">
         <v>100.419048</v>
       </c>
       <c r="AW47">
@@ -19431,17 +19394,17 @@
         <v>0.70857704529069554</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q48">
         <v>0.21506163570405978</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AB48" s="4">
         <v>106.24588868901063</v>
       </c>
-      <c r="AC48" s="7">
+      <c r="AC48" s="4">
         <v>108.30007800000001</v>
       </c>
       <c r="AW48">
@@ -19451,17 +19414,17 @@
         <v>0.63845427183485615</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q49">
         <v>0.21492741896581377</v>
       </c>
-      <c r="AB49" s="7">
+      <c r="AB49" s="4">
         <v>114.82443038751407</v>
       </c>
-      <c r="AC49" s="7">
+      <c r="AC49" s="4">
         <v>118.417248</v>
       </c>
       <c r="AW49">
@@ -19471,17 +19434,17 @@
         <v>0.73853103117650143</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q50">
         <v>0.20195496034680543</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AB50" s="4">
         <v>123.40297208601751</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AC50" s="4">
         <v>127.661778</v>
       </c>
       <c r="AW50">
@@ -19491,17 +19454,17 @@
         <v>0.67526793554628151</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q51">
         <v>0.21048284928741859</v>
       </c>
-      <c r="AB51" s="7">
+      <c r="AB51" s="4">
         <v>131.98151378452096</v>
       </c>
-      <c r="AC51" s="7">
+      <c r="AC51" s="4">
         <v>128.53441800000002</v>
       </c>
       <c r="AW51">
@@ -19511,17 +19474,17 @@
         <v>0.64097832783216524</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>7.7861070772838179</v>
       </c>
       <c r="Q52">
         <v>0.21048284928741859</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AB52" s="4">
         <v>140.5600554830244</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AC52" s="4">
         <v>128.69803800000003</v>
       </c>
       <c r="AW52">
@@ -19531,7 +19494,7 @@
         <v>0.80012371212156597</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7.7861070772838179</v>
       </c>
@@ -19544,10 +19507,10 @@
       <c r="R53">
         <v>0.21111111111111</v>
       </c>
-      <c r="AB53" s="7">
+      <c r="AB53" s="4">
         <v>149.13859718152784</v>
       </c>
-      <c r="AC53" s="7">
+      <c r="AC53" s="4">
         <v>139.68522820000001</v>
       </c>
       <c r="AW53" s="1">
@@ -19557,18 +19520,16 @@
         <v>0.81700919999999977</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q54" s="2"/>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q55"/>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AB55" t="s">
         <v>35</v>
       </c>
-      <c r="AW55" s="3"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q56" s="3" t="s">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="Q56" t="s">
         <v>104</v>
       </c>
       <c r="AB56" t="s">
@@ -19577,9 +19538,9 @@
       <c r="AC56" t="s">
         <v>115</v>
       </c>
-      <c r="AW56" s="5"/>
+      <c r="AW56" s="2"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -19606,7 +19567,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9.0179882617008982</v>
       </c>
@@ -19619,15 +19580,15 @@
       <c r="AC58" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW58" s="7">
+      <c r="AW58" s="4">
         <f t="array" ref="AW58:AX80">[1]!'!G_ON!R15C33:R37C34'</f>
         <v>0.72607453016318335</v>
       </c>
-      <c r="AX58" s="7">
+      <c r="AX58" s="4">
         <v>0.65344192000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>9.6364859569092118</v>
       </c>
@@ -19640,14 +19601,14 @@
       <c r="AC59" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW59" s="7">
+      <c r="AW59" s="4">
         <v>0.83128737388450591</v>
       </c>
-      <c r="AX59" s="7">
+      <c r="AX59" s="4">
         <v>0.64036455686883453</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>10.254983652117522</v>
       </c>
@@ -19660,14 +19621,14 @@
       <c r="AC60" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW60" s="7">
+      <c r="AW60" s="4">
         <v>0.63043827238055505</v>
       </c>
-      <c r="AX60" s="7">
+      <c r="AX60" s="4">
         <v>0.7932894879379141</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>10.873481347325832</v>
       </c>
@@ -19680,14 +19641,14 @@
       <c r="AC61" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW61" s="7">
+      <c r="AW61" s="4">
         <v>0.60065134064821901</v>
       </c>
-      <c r="AX61" s="7">
+      <c r="AX61" s="4">
         <v>0.82293179955777551</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>11.491979042534142</v>
       </c>
@@ -19700,14 +19661,14 @@
       <c r="AC62" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW62" s="7">
+      <c r="AW62" s="4">
         <v>1.3870191027678538</v>
       </c>
-      <c r="AX62" s="7">
+      <c r="AX62" s="4">
         <v>0.92074311955178001</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>12.110476737742456</v>
       </c>
@@ -19720,14 +19681,14 @@
       <c r="AC63" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW63" s="7">
+      <c r="AW63" s="4">
         <v>1.0669376574750262</v>
       </c>
-      <c r="AX63" s="7">
+      <c r="AX63" s="4">
         <v>0.90838052650279877</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>12.728974432950766</v>
       </c>
@@ -19740,14 +19701,14 @@
       <c r="AC64" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW64" s="7">
+      <c r="AW64" s="4">
         <v>1.1102460279776243</v>
       </c>
-      <c r="AX64" s="7">
+      <c r="AX64" s="4">
         <v>1.0929272816425069</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>13.347472128159076</v>
       </c>
@@ -19760,14 +19721,14 @@
       <c r="AC65" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW65" s="7">
+      <c r="AW65" s="4">
         <v>1.1652266951639172</v>
       </c>
-      <c r="AX65" s="7">
+      <c r="AX65" s="4">
         <v>1.2695042034321</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>13.965969823367388</v>
       </c>
@@ -19780,14 +19741,14 @@
       <c r="AC66" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW66" s="7">
+      <c r="AW66" s="4">
         <v>1.1693480104719869</v>
       </c>
-      <c r="AX66" s="7">
+      <c r="AX66" s="4">
         <v>1.4691599777452999</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>14.584467518575698</v>
       </c>
@@ -19800,14 +19761,14 @@
       <c r="AC67" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW67" s="7">
+      <c r="AW67" s="4">
         <v>1.1868953535753768</v>
       </c>
-      <c r="AX67" s="7">
+      <c r="AX67" s="4">
         <v>1.7144410320459029</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>15.20296521378401</v>
       </c>
@@ -19820,14 +19781,14 @@
       <c r="AC68" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW68" s="7">
+      <c r="AW68" s="4">
         <v>1.2044224991577914</v>
       </c>
-      <c r="AX68" s="7">
+      <c r="AX68" s="4">
         <v>1.5740064605333901</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>15.821462908992324</v>
       </c>
@@ -19840,14 +19801,14 @@
       <c r="AC69" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW69" s="7">
+      <c r="AW69" s="4">
         <v>1.2455499759497981</v>
       </c>
-      <c r="AX69" s="7">
+      <c r="AX69" s="4">
         <v>1.3759656046377</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>16.439960604200632</v>
       </c>
@@ -19860,14 +19821,14 @@
       <c r="AC70" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW70" s="7">
+      <c r="AW70" s="4">
         <v>1.2994181820541033</v>
       </c>
-      <c r="AX70" s="7">
+      <c r="AX70" s="4">
         <v>1.291948830207698</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>17.058458299408944</v>
       </c>
@@ -19880,14 +19841,14 @@
       <c r="AC71" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW71" s="7">
+      <c r="AW71" s="4">
         <v>1.2583468468484742</v>
       </c>
-      <c r="AX71" s="7">
+      <c r="AX71" s="4">
         <v>1.2500835476657397</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>17.676955994617252</v>
       </c>
@@ -19900,14 +19861,14 @@
       <c r="AC72" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW72" s="7">
+      <c r="AW72" s="4">
         <v>1.3933686416144726</v>
       </c>
-      <c r="AX72" s="7">
+      <c r="AX72" s="4">
         <v>1.2043904056925545</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>18.295453689825564</v>
       </c>
@@ -19920,14 +19881,14 @@
       <c r="AC73" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW73" s="7">
+      <c r="AW73" s="4">
         <v>1.369170830277713</v>
       </c>
-      <c r="AX73" s="7">
+      <c r="AX73" s="4">
         <v>1.3265052754811999</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>18.295453689825564</v>
       </c>
@@ -19940,14 +19901,14 @@
       <c r="AC74" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW74" s="7">
+      <c r="AW74" s="4">
         <v>1.3812555018050128</v>
       </c>
-      <c r="AX74" s="7">
+      <c r="AX74" s="4">
         <v>1.4232386317999555</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>18.295453689825564</v>
       </c>
@@ -19960,14 +19921,14 @@
       <c r="AC75" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW75" s="7">
+      <c r="AW75" s="4">
         <v>1.3753769010808077</v>
       </c>
-      <c r="AX75" s="7">
+      <c r="AX75" s="4">
         <v>1.3644806895192365</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>18.295453689825564</v>
       </c>
@@ -19980,14 +19941,14 @@
       <c r="AC76" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW76" s="7">
+      <c r="AW76" s="4">
         <v>1.4725012263402248</v>
       </c>
-      <c r="AX76" s="7">
+      <c r="AX76" s="4">
         <v>1.299018990205173</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>18.295453689825564</v>
       </c>
@@ -20000,14 +19961,14 @@
       <c r="AC77" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW77" s="7">
+      <c r="AW77" s="4">
         <v>1.4806166196357229</v>
       </c>
-      <c r="AX77" s="7">
+      <c r="AX77" s="4">
         <v>1.2704185386145077</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>18.295453689825564</v>
       </c>
@@ -20020,14 +19981,14 @@
       <c r="AC78" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW78" s="7">
+      <c r="AW78" s="4">
         <v>1.4751655600913396</v>
       </c>
-      <c r="AX78" s="7">
+      <c r="AX78" s="4">
         <v>1.3280400486145076</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>18.295453689825564</v>
       </c>
@@ -20040,14 +20001,14 @@
       <c r="AC79" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW79" s="7">
+      <c r="AW79" s="4">
         <v>1.4574399196513226</v>
       </c>
-      <c r="AX79" s="7">
+      <c r="AX79" s="4">
         <v>1.4857214607145075</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>18.295453689825564</v>
       </c>
@@ -20060,21 +20021,19 @@
       <c r="R80">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AW80" s="7">
+      <c r="AW80" s="4">
         <v>1.4574399196513226</v>
       </c>
-      <c r="AX80" s="7">
+      <c r="AX80" s="4">
         <v>1.5454169579999983</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q81"/>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AB81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q82"/>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AB82" t="s">
         <v>138</v>
       </c>
@@ -20082,8 +20041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Q83"/>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AB83" t="e">
         <f t="array" ref="AB83:AC105">[2]!'!R_ON!R15C9:R37C10'</f>
         <v>#REF!</v>
@@ -20091,9 +20049,9 @@
       <c r="AC83" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AW83" s="5"/>
+      <c r="AW83" s="2"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -20119,7 +20077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>9.8264913982452988</v>
       </c>
@@ -20140,7 +20098,7 @@
         <v>0.31577690000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9.8264913982452988</v>
       </c>
@@ -20160,7 +20118,7 @@
         <v>0.49362790587290745</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9.8264913982452988</v>
       </c>
@@ -20180,7 +20138,7 @@
         <v>0.69544475851361764</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>9.8264913982452988</v>
       </c>
@@ -20200,7 +20158,7 @@
         <v>0.76878177546753668</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9.8264913982452988</v>
       </c>
@@ -20220,7 +20178,7 @@
         <v>0.84130312210263603</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9.8264913982452988</v>
       </c>
@@ -20240,7 +20198,7 @@
         <v>0.97184580942573306</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9.8264913982452988</v>
       </c>
@@ -20260,7 +20218,7 @@
         <v>1.1595370769845901</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>14.286692795074737</v>
       </c>
@@ -20280,7 +20238,7 @@
         <v>1.5082482584810299</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>14.92386442319323</v>
       </c>
@@ -20300,7 +20258,7 @@
         <v>1.6653343635424043</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>15.561036051311721</v>
       </c>
@@ -20320,7 +20278,7 @@
         <v>1.6723510231292051</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>16.198207679430212</v>
       </c>
@@ -20340,7 +20298,7 @@
         <v>1.5083403505815001</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>16.835379307548706</v>
       </c>
@@ -20360,7 +20318,7 @@
         <v>1.41935626156299</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>17.472550935667197</v>
       </c>
@@ -20380,7 +20338,7 @@
         <v>1.5100973900529258</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>18.109722563785688</v>
       </c>
@@ -20400,7 +20358,7 @@
         <v>1.5468966301787399</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>18.746894191904179</v>
       </c>
@@ -20420,7 +20378,7 @@
         <v>1.5959712685287999</v>
       </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19.384065820022666</v>
       </c>
@@ -20440,7 +20398,7 @@
         <v>1.24385141954851</v>
       </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>19.384065820022666</v>
       </c>
@@ -20460,7 +20418,7 @@
         <v>1.1175107133754203</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>19.384065820022666</v>
       </c>
@@ -20480,7 +20438,7 @@
         <v>1.154914476806955</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>19.384065820022666</v>
       </c>
@@ -20500,7 +20458,7 @@
         <v>1.1550103669217944</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>19.384065820022666</v>
       </c>
@@ -20520,7 +20478,7 @@
         <v>1.2684311018440522</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>19.384065820022666</v>
       </c>
@@ -20540,7 +20498,7 @@
         <v>1.5540155708440513</v>
       </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>19.384065820022666</v>
       </c>
@@ -20554,7 +20512,7 @@
         <v>1.7114006965583386</v>
       </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>19.384065820022666</v>
       </c>
@@ -20586,44 +20544,44 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:AV94"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" customWidth="1"/>
+    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" customWidth="1"/>
+    <col min="30" max="30" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.81640625" customWidth="1"/>
+    <col min="35" max="35" width="13.81640625" customWidth="1"/>
+    <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -20645,23 +20603,23 @@
       <c r="R1" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="6" t="s">
         <v>106</v>
       </c>
       <c r="AN1" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -20783,7 +20741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -20799,63 +20757,63 @@
       <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>0.7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>0.72</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>0.68</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>0.69</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="4">
         <v>11.7044</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="4">
         <v>9.9319999999999986</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>37.353999999999999</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>29.119600000000002</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="4">
         <v>2.1920000000000002</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <v>3.0779999999999998</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="4">
         <v>1.0739999999999998</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="4">
         <v>0.6</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="11">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
         <f>R3*27.27</f>
         <v>59.775840000000002</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="4">
         <f>S3*27.27</f>
         <v>83.937059999999988</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="4">
         <f>T3*27.27</f>
         <v>29.287979999999994</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="4">
         <f>U3*27.27</f>
         <v>16.361999999999998</v>
       </c>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="4"/>
       <c r="AB3">
         <v>1</v>
       </c>
@@ -20890,36 +20848,36 @@
         <f t="shared" si="0"/>
         <v>8.2290481571544341</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3" s="4">
         <v>22.613555555555529</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="4">
         <v>21.394222222222215</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="4">
         <v>31.296000000000006</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="4">
         <v>26.247777777777788</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="7">
         <f>(AN3*0.001)*27.27</f>
         <v>0.61667165999999929</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="7">
         <f>(AO3*0.001)*27.27</f>
         <v>0.58342043999999971</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="7">
         <f>(AP3*0.001)*27.27</f>
         <v>0.85344192000000008</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="7">
         <f>(AQ3*0.001)*27.27</f>
         <v>0.71577690000000027</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -20935,48 +20893,48 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>14.54956</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <v>10.2342342</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>37.328899999999997</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>30.23432</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <v>6.6380900724148386</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <v>4.4686020261253594</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="4">
         <v>2.4087291210548352</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="4">
         <v>1.8029444124346361</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="11">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
         <f t="shared" ref="W4:W24" si="1">R4*27.27</f>
         <v>181.02071627475266</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="4">
         <f t="shared" ref="X4:X25" si="2">S4*27.27</f>
         <v>121.85877725243854</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="4">
         <f t="shared" ref="Y4:Y25" si="3">T4*27.27</f>
         <v>65.686043131165349</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="4">
         <f t="shared" ref="Z4:Z25" si="4">U4*27.27</f>
         <v>49.166294127092527</v>
       </c>
-      <c r="AA4" s="11"/>
+      <c r="AA4" s="4"/>
       <c r="AB4">
         <v>2</v>
       </c>
@@ -21011,36 +20969,36 @@
         <f t="shared" ref="AL4:AL24" si="8">AF4*27.27</f>
         <v>8.5440622563090649</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="4">
         <v>8.9463543720296119</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="4">
         <v>17.054731307207977</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="4">
         <v>23.482381990056272</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4" s="4">
         <v>18.101500032009806</v>
       </c>
-      <c r="AS4" s="12">
+      <c r="AS4" s="7">
         <f t="shared" ref="AS4:AS25" si="9">(AN4*0.001)*27.27</f>
         <v>0.24396708372524753</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="7">
         <f t="shared" ref="AT4:AT25" si="10">(AO4*0.001)*27.27</f>
         <v>0.46508252274756157</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="7">
         <f t="shared" ref="AU4:AU25" si="11">(AP4*0.001)*27.27</f>
         <v>0.64036455686883453</v>
       </c>
-      <c r="AV4" s="12">
+      <c r="AV4" s="7">
         <f t="shared" ref="AV4:AV25" si="12">(AQ4*0.001)*27.27</f>
         <v>0.49362790587290745</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -21056,48 +21014,48 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>18.435300000000002</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>12.325340000000001</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>38.005299999999998</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>31.4345</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <v>6.6336296113981437</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>4.6396634435405177</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <v>2.9942542010299191</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="4">
         <v>1.8578086353642227</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="11">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
         <v>180.89907950282736</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="4">
         <f t="shared" si="2"/>
         <v>126.52362210534992</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="4">
         <f t="shared" si="3"/>
         <v>81.653312062085888</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="4">
         <f t="shared" si="4"/>
         <v>50.662441486382349</v>
       </c>
-      <c r="AA5" s="11"/>
+      <c r="AA5" s="4"/>
       <c r="AB5">
         <v>3</v>
       </c>
@@ -21132,81 +21090,81 @@
         <f t="shared" si="8"/>
         <v>8.8832269088885507</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="4">
         <v>4.0374814997129693</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="4">
         <v>11.168114334237238</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="4">
         <v>29.090190243414526</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ5" s="4">
         <v>25.502191364635777</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="AS5" s="7">
         <f t="shared" si="9"/>
         <v>0.11010212049717268</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="7">
         <f t="shared" si="10"/>
         <v>0.30455447789464951</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="7">
         <f t="shared" si="11"/>
         <v>0.7932894879379141</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="7">
         <f t="shared" si="12"/>
         <v>0.69544475851361764</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>20.353452999999998</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>17.342230000000001</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>38.44</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>32.395555555555553</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>6.7538310389556049</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <v>4.8238392831713899</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="4">
         <v>3.7939274089557946</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="4">
         <v>2.237404639987628</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="11">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
         <f t="shared" si="1"/>
         <v>184.17697243231933</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="4">
         <f t="shared" si="2"/>
         <v>131.5460972520838</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="4">
         <f t="shared" si="3"/>
         <v>103.46040044222451</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="4">
         <f t="shared" si="4"/>
         <v>61.014024532462614</v>
       </c>
-      <c r="AA6" s="11"/>
+      <c r="AA6" s="4"/>
       <c r="AB6">
         <v>4</v>
       </c>
@@ -21241,81 +21199,81 @@
         <f t="shared" si="8"/>
         <v>9.154816231831429</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AN6" s="4">
         <v>6.4961689610443827</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AO6" s="4">
         <v>14.321716272384171</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AP6" s="4">
         <v>30.177183702155318</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AQ6" s="4">
         <v>28.191484248901236</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AS6" s="7">
         <f t="shared" si="9"/>
         <v>0.17715052756768032</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="7">
         <f t="shared" si="10"/>
         <v>0.39055320274791633</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="7">
         <f t="shared" si="11"/>
         <v>0.82293179955777551</v>
       </c>
-      <c r="AV6" s="12">
+      <c r="AV6" s="7">
         <f t="shared" si="12"/>
         <v>0.76878177546753668</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>23.603333333333332</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>18.451111111111111</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>40.351999999999997</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>35.435339999999997</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <v>6.8310805371212293</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>4.9713198393182667</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <v>4.1886773311849295</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="4">
         <v>3.1481148487370438</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="11">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
         <f t="shared" si="1"/>
         <v>186.28356624729591</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="4">
         <f t="shared" si="2"/>
         <v>135.56789201820914</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="4">
         <f t="shared" si="3"/>
         <v>114.22523082141302</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="4">
         <f t="shared" si="4"/>
         <v>85.849091925059184</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="4"/>
       <c r="AB7">
         <v>5</v>
       </c>
@@ -21350,81 +21308,81 @@
         <f t="shared" si="8"/>
         <v>10.013843573577272</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="4">
         <v>10.425586129545446</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="4">
         <v>18.342013494015081</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="4">
         <v>37.430990815980309</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="4">
         <v>34.517899600390017</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="7">
         <f t="shared" si="9"/>
         <v>0.28430573375270429</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="7">
         <f t="shared" si="10"/>
         <v>0.50018670798179132</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="7">
         <f t="shared" si="11"/>
         <v>1.0207431195517831</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AV7" s="7">
         <f t="shared" si="12"/>
         <v>0.94130312210263578</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="L8">
         <v>6</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>33.435299999999998</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <v>20.342342500000001</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>47.341999999999999</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <v>37.324199999999998</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <v>7.170857487875022</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="4">
         <v>5.4377955782511087</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="4">
         <v>4.8574925971399034</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="4">
         <v>3.3494087475824008</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="11">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
         <f t="shared" si="1"/>
         <v>195.54928369435186</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="4">
         <f t="shared" si="2"/>
         <v>148.28868541890773</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="4">
         <f t="shared" si="3"/>
         <v>132.46382312400516</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="4">
         <f t="shared" si="4"/>
         <v>91.338376546572064</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="4"/>
       <c r="AB8">
         <v>6</v>
       </c>
@@ -21459,36 +21417,36 @@
         <f t="shared" si="8"/>
         <v>10.547625627661901</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="4">
         <v>13.361364734347177</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="4">
         <v>15.376648866193346</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="4">
         <v>33.310617033472631</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="4">
         <v>35.637910136623873</v>
       </c>
-      <c r="AS8" s="12">
+      <c r="AS8" s="7">
         <f t="shared" si="9"/>
         <v>0.36436441630564753</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AT8" s="7">
         <f t="shared" si="10"/>
         <v>0.41932121458109256</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AU8" s="7">
         <f t="shared" si="11"/>
         <v>0.90838052650279877</v>
       </c>
-      <c r="AV8" s="12">
+      <c r="AV8" s="7">
         <f t="shared" si="12"/>
         <v>0.97184580942573306</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>144</v>
       </c>
@@ -21504,48 +21462,48 @@
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>37.456546400000001</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>28.324240000000003</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>57.995555555555498</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>39.49111111111111</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <v>8.4130336833609061</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>5.7276540798468432</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="4">
         <v>6.8808807611842315</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>3.692721782743317</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="11">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
         <f t="shared" si="1"/>
         <v>229.42342854525191</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="4">
         <f t="shared" si="2"/>
         <v>156.19312675742341</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="4">
         <f t="shared" si="3"/>
         <v>187.641618357494</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="4">
         <f t="shared" si="4"/>
         <v>100.70052301541025</v>
       </c>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="4"/>
       <c r="AB9">
         <v>7</v>
       </c>
@@ -21580,36 +21538,36 @@
         <f t="shared" si="8"/>
         <v>11.15998348579204</v>
       </c>
-      <c r="AN9" s="7">
+      <c r="AN9" s="4">
         <v>12.538077427750197</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AO9" s="4">
         <v>22.623457031264266</v>
       </c>
-      <c r="AP9" s="7">
+      <c r="AP9" s="4">
         <v>40.078008127704685</v>
       </c>
-      <c r="AQ9" s="7">
+      <c r="AQ9" s="4">
         <v>42.520611550590033</v>
       </c>
-      <c r="AS9" s="12">
+      <c r="AS9" s="7">
         <f t="shared" si="9"/>
         <v>0.34191337145474787</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AT9" s="7">
         <f t="shared" si="10"/>
         <v>0.61694167324257654</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AU9" s="7">
         <f t="shared" si="11"/>
         <v>1.0929272816425069</v>
       </c>
-      <c r="AV9" s="12">
+      <c r="AV9" s="7">
         <f t="shared" si="12"/>
         <v>1.1595370769845901</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -21628,48 +21586,48 @@
       <c r="L10">
         <v>8</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <v>39.001111111111115</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="4">
         <v>31.011111111111113</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="4">
         <v>65.342420000000004</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="4">
         <v>49.32423</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="4">
         <v>10.306251581557964</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="4">
         <v>8.0601814284898392</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="4">
         <v>7.708440764825335</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="4">
         <v>5.1416663556642792</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="11">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
         <f t="shared" si="1"/>
         <v>281.05148062908569</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="4">
         <f t="shared" si="2"/>
         <v>219.80114755491792</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="4">
         <f t="shared" si="3"/>
         <v>210.20917965678689</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="4">
         <f t="shared" si="4"/>
         <v>140.21324151896488</v>
       </c>
-      <c r="AA10" s="11"/>
+      <c r="AA10" s="4"/>
       <c r="AB10">
         <v>8</v>
       </c>
@@ -21704,36 +21662,36 @@
         <f t="shared" si="8"/>
         <v>13.938771960623136</v>
       </c>
-      <c r="AN10" s="7">
+      <c r="AN10" s="4">
         <v>12.555970640664258</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="4">
         <v>23.476485238176828</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="4">
         <v>55.993781457396857</v>
       </c>
-      <c r="AQ10" s="7">
+      <c r="AQ10" s="4">
         <v>58.975000311002368</v>
       </c>
-      <c r="AS10" s="12">
+      <c r="AS10" s="7">
         <f t="shared" si="9"/>
         <v>0.34240131937091428</v>
       </c>
-      <c r="AT10" s="12">
+      <c r="AT10" s="7">
         <f t="shared" si="10"/>
         <v>0.6402037524450821</v>
       </c>
-      <c r="AU10" s="12">
+      <c r="AU10" s="7">
         <f t="shared" si="11"/>
         <v>1.5269504203432123</v>
       </c>
-      <c r="AV10" s="12">
+      <c r="AV10" s="7">
         <f t="shared" si="12"/>
         <v>1.6082482584810345</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>0.16</v>
       </c>
@@ -21749,48 +21707,48 @@
       <c r="L11">
         <v>9</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <v>57.342339999999993</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <v>53.32423</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="4">
         <v>70.32423</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="4">
         <v>79.234200000000001</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="4">
         <v>12.611845304641024</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="4">
         <v>11.569140857534899</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="4">
         <v>8.0263073790052157</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="4">
         <v>6.6294109445396101</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="11">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
         <f t="shared" si="1"/>
         <v>343.92502145756072</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="4">
         <f t="shared" si="2"/>
         <v>315.49047118497668</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="4">
         <f t="shared" si="3"/>
         <v>218.87740222547222</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="4">
         <f t="shared" si="4"/>
         <v>180.78403645759516</v>
       </c>
-      <c r="AA11" s="11"/>
+      <c r="AA11" s="4"/>
       <c r="AB11">
         <v>9</v>
       </c>
@@ -21825,36 +21783,36 @@
         <f t="shared" si="8"/>
         <v>22.391174586656614</v>
       </c>
-      <c r="AN11" s="7">
+      <c r="AN11" s="4">
         <v>15.238154695358999</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AO11" s="4">
         <v>22.87308136468733</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AP11" s="4">
         <v>67.727025954328099</v>
       </c>
-      <c r="AQ11" s="7">
+      <c r="AQ11" s="4">
         <v>61.068366833238152</v>
       </c>
-      <c r="AS11" s="12">
+      <c r="AS11" s="7">
         <f t="shared" si="9"/>
         <v>0.41554447854243987</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AT11" s="7">
         <f t="shared" si="10"/>
         <v>0.62374892881502342</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AU11" s="7">
         <f t="shared" si="11"/>
         <v>1.8469159977745273</v>
       </c>
-      <c r="AV11" s="12">
+      <c r="AV11" s="7">
         <f t="shared" si="12"/>
         <v>1.6653343635424043</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0.16</v>
       </c>
@@ -21870,48 +21828,48 @@
       <c r="L12">
         <v>10</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>75.343500000000006</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <v>62.32423</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="4">
         <v>72.526333333333326</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="4">
         <v>83.630111111111106</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="4">
         <v>13.497150854345392</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="4">
         <v>12.1590305724811</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="4">
         <v>10.8008752458415</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="4">
         <v>9.6798854738098452</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="11">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
         <f t="shared" si="1"/>
         <v>368.06730379799882</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="4">
         <f t="shared" si="2"/>
         <v>331.57676371155958</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="4">
         <f t="shared" si="3"/>
         <v>294.5398679540977</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="4">
         <f t="shared" si="4"/>
         <v>263.97047687079447</v>
       </c>
-      <c r="AA12" s="11"/>
+      <c r="AA12" s="4"/>
       <c r="AB12">
         <v>10</v>
       </c>
@@ -21946,36 +21904,36 @@
         <f t="shared" si="8"/>
         <v>23.633436301374655</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN12" s="4">
         <v>31.221738034543478</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="4">
         <v>20.7576360941856</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="4">
         <v>62.86912475415852</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="4">
         <v>61.325670081745699</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AS12" s="7">
         <f t="shared" si="9"/>
         <v>0.85141679620200061</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AT12" s="7">
         <f t="shared" si="10"/>
         <v>0.56606073628844134</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AU12" s="7">
         <f t="shared" si="11"/>
         <v>1.7144410320459029</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AV12" s="7">
         <f t="shared" si="12"/>
         <v>1.6723510231292051</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>0.21</v>
       </c>
@@ -21991,48 +21949,48 @@
       <c r="L13">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>80.213333333333324</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <v>69.282222222222217</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="4">
         <v>78.435230000000004</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="4">
         <v>89.32423</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <v>13.888481375184703</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="4">
         <v>12.833613234941399</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="4">
         <v>11.5054579929082</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="4">
         <v>10.3136450098461</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="11">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
         <f t="shared" si="1"/>
         <v>378.73888710128688</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="4">
         <f t="shared" si="2"/>
         <v>349.97263291685198</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="4">
         <f t="shared" si="3"/>
         <v>313.75383946660662</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="4">
         <f t="shared" si="4"/>
         <v>281.25309941850315</v>
       </c>
-      <c r="AA13" s="11"/>
+      <c r="AA13" s="4"/>
       <c r="AB13">
         <v>11</v>
       </c>
@@ -22067,36 +22025,36 @@
         <f t="shared" si="8"/>
         <v>25.242564811011789</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AN13" s="4">
         <v>24.220407513704188</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="4">
         <v>17.368608987280801</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="4">
         <v>43.051208673758453</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="4">
         <v>44.31024387904278</v>
       </c>
-      <c r="AS13" s="12">
+      <c r="AS13" s="7">
         <f t="shared" si="9"/>
         <v>0.66049051289871319</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="7">
         <f t="shared" si="10"/>
         <v>0.47364196708314749</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="7">
         <f t="shared" si="11"/>
         <v>1.1740064605333931</v>
       </c>
-      <c r="AV13" s="12">
+      <c r="AV13" s="7">
         <f t="shared" si="12"/>
         <v>1.2083403505814967</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>0.19</v>
       </c>
@@ -22112,48 +22070,48 @@
       <c r="L14">
         <v>12</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>89.432432000000006</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <v>90.324200000000005</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="4">
         <v>99.352350000000001</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="4">
         <v>110.3432</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="4">
         <v>14.938537280895611</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="4">
         <v>13.707414770810299</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="4">
         <v>16.507654548450027</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="4">
         <v>13.576721248148401</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="11">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <f t="shared" si="1"/>
         <v>407.37391165002333</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="4">
         <f t="shared" si="2"/>
         <v>373.80120079999688</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="4">
         <f t="shared" si="3"/>
         <v>450.16373953623224</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="4">
         <f t="shared" si="4"/>
         <v>370.23718843700686</v>
       </c>
-      <c r="AA14" s="11"/>
+      <c r="AA14" s="4"/>
       <c r="AB14">
         <v>12</v>
       </c>
@@ -22188,36 +22146,36 @@
         <f t="shared" si="8"/>
         <v>31.182416881225119</v>
       </c>
-      <c r="AN14" s="7">
+      <c r="AN14" s="4">
         <v>12.053684941326607</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AO14" s="4">
         <v>14.984807451411942</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AP14" s="4">
         <v>38.049012118216623</v>
       </c>
-      <c r="AQ14" s="7">
+      <c r="AQ14" s="4">
         <v>41.047167640740511</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AS14" s="7">
         <f t="shared" si="9"/>
         <v>0.32870398834997655</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="7">
         <f t="shared" si="10"/>
         <v>0.4086356992000037</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="7">
         <f t="shared" si="11"/>
         <v>1.0375965604637674</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="7">
         <f t="shared" si="12"/>
         <v>1.1193562615629937</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>0.17</v>
       </c>
@@ -22233,48 +22191,48 @@
       <c r="L15">
         <v>13</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <v>90.424199999999999</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <v>105.25200000000001</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="4">
         <v>110</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="4">
         <v>120.13455555555555</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <v>16.6556686889245</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="4">
         <v>15.932919651683299</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="4">
         <v>18.404916384022801</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="4">
         <v>16.396447009426957</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="11">
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
         <f t="shared" si="1"/>
         <v>454.20008514697111</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="4">
         <f t="shared" si="2"/>
         <v>434.49071890140357</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="4">
         <f t="shared" si="3"/>
         <v>501.9020697923018</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="4">
         <f t="shared" si="4"/>
         <v>447.13110994707313</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="4"/>
       <c r="AB15">
         <v>13</v>
       </c>
@@ -22309,36 +22267,36 @@
         <f t="shared" si="8"/>
         <v>33.949403254337675</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AN15" s="4">
         <v>33.259886866631071</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AO15" s="4">
         <v>14.391380348316702</v>
       </c>
-      <c r="AP15" s="7">
+      <c r="AP15" s="4">
         <v>47.376194727088304</v>
       </c>
-      <c r="AQ15" s="7">
+      <c r="AQ15" s="4">
         <v>55.375775212795226</v>
       </c>
-      <c r="AS15" s="12">
+      <c r="AS15" s="7">
         <f t="shared" si="9"/>
         <v>0.90699711485302936</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AT15" s="7">
         <f t="shared" si="10"/>
         <v>0.39245294209859649</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AU15" s="7">
         <f t="shared" si="11"/>
         <v>1.291948830207698</v>
       </c>
-      <c r="AV15" s="12">
+      <c r="AV15" s="7">
         <f t="shared" si="12"/>
         <v>1.5100973900529258</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>0.17</v>
       </c>
@@ -22354,48 +22312,48 @@
       <c r="L16">
         <v>14</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>108.28444444444443</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>126.56900000000002</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="4">
         <v>127.34229999999999</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="4">
         <v>135.23419999999999</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <v>18.5478371249567</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="4">
         <v>24.435470211239998</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="4">
         <v>18.609019154171648</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="4">
         <v>19.106273187431565</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="11">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
         <f t="shared" si="1"/>
         <v>505.79951839756922</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="4">
         <f t="shared" si="2"/>
         <v>666.35527266051474</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="4">
         <f t="shared" si="3"/>
         <v>507.46795233426081</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="4">
         <f t="shared" si="4"/>
         <v>521.02806982125878</v>
       </c>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="4"/>
       <c r="AB16">
         <v>14</v>
       </c>
@@ -22430,36 +22388,36 @@
         <f t="shared" si="8"/>
         <v>38.216484577200717</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AN16" s="4">
         <v>29.4521628750433</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AO16" s="4">
         <v>25.848279788759999</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AP16" s="4">
         <v>45.840980845828369</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ16" s="4">
         <v>64.059282368124016</v>
       </c>
-      <c r="AS16" s="12">
+      <c r="AS16" s="7">
         <f t="shared" si="9"/>
         <v>0.8031604816024307</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AT16" s="7">
         <f t="shared" si="10"/>
         <v>0.70488258983948515</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AU16" s="7">
         <f t="shared" si="11"/>
         <v>1.2500835476657397</v>
       </c>
-      <c r="AV16" s="12">
+      <c r="AV16" s="7">
         <f t="shared" si="12"/>
         <v>1.7468966301787419</v>
       </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>0.19</v>
       </c>
@@ -22475,48 +22433,48 @@
       <c r="L17">
         <v>15</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>107.3242</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>134.34533999999999</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <v>145.32419999999999</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>179.42439999999999</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>20.629695813794299</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="4">
         <v>29.752614051066701</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="4">
         <v>20.2846019181315</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="4">
         <v>22.975923412952021</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="11">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
         <f t="shared" si="1"/>
         <v>562.57180484217054</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="4">
         <f t="shared" si="2"/>
         <v>811.35378517258891</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="4">
         <f t="shared" si="3"/>
         <v>553.16109430744598</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="4">
         <f t="shared" si="4"/>
         <v>626.55343147120163</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="4"/>
       <c r="AB17">
         <v>15</v>
       </c>
@@ -22551,36 +22509,36 @@
         <f t="shared" si="8"/>
         <v>50.704406247631837</v>
       </c>
-      <c r="AN17" s="7">
+      <c r="AN17" s="4">
         <v>32.156970852872362</v>
       </c>
-      <c r="AO17" s="7">
+      <c r="AO17" s="4">
         <v>20.600385948933301</v>
       </c>
-      <c r="AP17" s="7">
+      <c r="AP17" s="4">
         <v>44.165398081868517</v>
       </c>
-      <c r="AQ17" s="7">
+      <c r="AQ17" s="4">
         <v>40.189632142603571</v>
       </c>
-      <c r="AS17" s="12">
+      <c r="AS17" s="7">
         <f t="shared" si="9"/>
         <v>0.87692059515782927</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AT17" s="7">
         <f t="shared" si="10"/>
         <v>0.56177252482741113</v>
       </c>
-      <c r="AU17" s="12">
+      <c r="AU17" s="7">
         <f t="shared" si="11"/>
         <v>1.2043904056925545</v>
       </c>
-      <c r="AV17" s="12">
+      <c r="AV17" s="7">
         <f t="shared" si="12"/>
         <v>1.0959712685287994</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D18">
         <v>0.22</v>
       </c>
@@ -22590,48 +22548,48 @@
       <c r="L18">
         <v>16</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>113.434</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>145.2432</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <v>162.99222222222224</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="4">
         <v>182.56756666666666</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="4">
         <v>24.825216290133</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="4">
         <v>31.533902848127269</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="4">
         <v>22.086986597682355</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="4">
         <v>24.387553371892004</v>
       </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="11">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
         <f t="shared" si="1"/>
         <v>676.98364823192685</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="4">
         <f t="shared" si="2"/>
         <v>859.92953066843063</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="4">
         <f t="shared" si="3"/>
         <v>602.31212451879776</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="4">
         <f t="shared" si="4"/>
         <v>665.0485804514949</v>
       </c>
-      <c r="AA18" s="11"/>
+      <c r="AA18" s="4"/>
       <c r="AB18">
         <v>16</v>
       </c>
@@ -22666,100 +22624,100 @@
         <f t="shared" si="8"/>
         <v>51.592648869988004</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="4">
         <v>29.204783709867002</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AO18" s="4">
         <v>23.466097151872731</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AP18" s="4">
         <v>55.97745784676205</v>
       </c>
-      <c r="AQ18" s="7">
+      <c r="AQ18" s="4">
         <v>45.612446628107996</v>
       </c>
-      <c r="AS18" s="12">
+      <c r="AS18" s="7">
         <f t="shared" si="9"/>
         <v>0.79641445176807313</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="AT18" s="7">
         <f t="shared" si="10"/>
         <v>0.63992046933156943</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="AU18" s="7">
         <f t="shared" si="11"/>
         <v>1.5265052754812012</v>
       </c>
-      <c r="AV18" s="12">
+      <c r="AV18" s="7">
         <f t="shared" si="12"/>
         <v>1.2438514195485051</v>
       </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="17">
         <f>STDEV(C10:C17)</f>
         <v>1.7728105208558362E-2</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="17">
         <f>STDEV(D10:D17)</f>
         <v>1.8850918886280921E-2</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="17">
         <f>STDEV(E10:E17)</f>
         <v>1.069044967649699E-2</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="17">
         <f>STDEV(F10:F17)</f>
         <v>7.0710678118654753E-3</v>
       </c>
       <c r="L19">
         <v>17</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>133.62222222222223</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>148.67555555555555</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <v>169.3535</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="4">
         <v>199.32423499999999</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="4">
         <v>27.964958296679502</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="4">
         <v>34.016243297004195</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="4">
         <v>23.344364437112038</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="4">
         <v>26.365829227157302</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="11">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4">
         <f t="shared" si="1"/>
         <v>762.60441275045002</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="4">
         <f t="shared" si="2"/>
         <v>927.62295470930439</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="4">
         <f t="shared" si="3"/>
         <v>636.6008182000453</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="4">
         <f t="shared" si="4"/>
         <v>718.99616302457957</v>
       </c>
-      <c r="AA19" s="11"/>
+      <c r="AA19" s="4"/>
       <c r="AB19">
         <v>17</v>
       </c>
@@ -22794,81 +22752,81 @@
         <f t="shared" si="8"/>
         <v>56.327996562554681</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AN19" s="4">
         <v>29.628375036653846</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AO19" s="4">
         <v>25.983756702995805</v>
       </c>
-      <c r="AP19" s="7">
+      <c r="AP19" s="4">
         <v>52.190635562887991</v>
       </c>
-      <c r="AQ19" s="7">
+      <c r="AQ19" s="4">
         <v>40.979490772842695</v>
       </c>
-      <c r="AS19" s="12">
+      <c r="AS19" s="7">
         <f t="shared" si="9"/>
         <v>0.80796578724955048</v>
       </c>
-      <c r="AT19" s="12">
+      <c r="AT19" s="7">
         <f t="shared" si="10"/>
         <v>0.70857704529069554</v>
       </c>
-      <c r="AU19" s="12">
+      <c r="AU19" s="7">
         <f t="shared" si="11"/>
         <v>1.4232386317999555</v>
       </c>
-      <c r="AV19" s="12">
+      <c r="AV19" s="7">
         <f t="shared" si="12"/>
         <v>1.1175107133754203</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.35">
       <c r="L20">
         <v>18</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>140.32423</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <v>160.3535</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <v>175.24332000000001</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <v>210.2423</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="4">
         <v>30.095405768557757</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="4">
         <v>36.5876687996019</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="4">
         <v>25.499037788073501</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="4">
         <v>27.9889007404857</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="11">
+      <c r="V20" s="4"/>
+      <c r="W20" s="4">
         <f t="shared" si="1"/>
         <v>820.70171530856999</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="4">
         <f t="shared" si="2"/>
         <v>997.74572816514376</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="4">
         <f t="shared" si="3"/>
         <v>695.35876048076432</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="4">
         <f t="shared" si="4"/>
         <v>763.25732319304507</v>
       </c>
-      <c r="AA20" s="11"/>
+      <c r="AA20" s="4"/>
       <c r="AB20">
         <v>18</v>
       </c>
@@ -22903,36 +22861,36 @@
         <f t="shared" si="8"/>
         <v>59.413385189731656</v>
       </c>
-      <c r="AN20" s="7">
+      <c r="AN20" s="4">
         <v>29.904594231442243</v>
       </c>
-      <c r="AO20" s="7">
+      <c r="AO20" s="4">
         <v>23.4123312003981</v>
       </c>
-      <c r="AP20" s="7">
+      <c r="AP20" s="4">
         <v>50.035962211926524</v>
       </c>
-      <c r="AQ20" s="7">
+      <c r="AQ20" s="4">
         <v>42.351099259514299</v>
       </c>
-      <c r="AS20" s="12">
+      <c r="AS20" s="7">
         <f t="shared" si="9"/>
         <v>0.81549828469142993</v>
       </c>
-      <c r="AT20" s="12">
+      <c r="AT20" s="7">
         <f t="shared" si="10"/>
         <v>0.63845427183485615</v>
       </c>
-      <c r="AU20" s="12">
+      <c r="AU20" s="7">
         <f t="shared" si="11"/>
         <v>1.3644806895192365</v>
       </c>
-      <c r="AV20" s="12">
+      <c r="AV20" s="7">
         <f t="shared" si="12"/>
         <v>1.154914476806955</v>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>8.07</v>
       </c>
@@ -22948,48 +22906,48 @@
       <c r="L21">
         <v>19</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>149.43534</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>175.35235</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>185.57566666666665</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>229.76566666666668</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="4">
         <v>31.142071605424235</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="4">
         <v>38.2631206389255</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="4">
         <v>27.878290146491601</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="4">
         <v>30.998784417976001</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="11">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4">
         <f t="shared" si="1"/>
         <v>849.24429267991889</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="4">
         <f t="shared" si="2"/>
         <v>1043.4352998234983</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y21" s="4">
         <f t="shared" si="3"/>
         <v>760.24097229482595</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="4">
         <f t="shared" si="4"/>
         <v>845.33685107820554</v>
       </c>
-      <c r="AA21" s="11"/>
+      <c r="AA21" s="4"/>
       <c r="AB21">
         <v>19</v>
       </c>
@@ -23024,36 +22982,36 @@
         <f t="shared" si="8"/>
         <v>64.930587503286219</v>
       </c>
-      <c r="AN21" s="7">
+      <c r="AN21" s="4">
         <v>30.203228394575767</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="AO21" s="4">
         <v>27.082179361074495</v>
       </c>
-      <c r="AP21" s="7">
+      <c r="AP21" s="4">
         <v>47.635459853508358</v>
       </c>
-      <c r="AQ21" s="7">
+      <c r="AQ21" s="4">
         <v>42.354615582023996</v>
       </c>
-      <c r="AS21" s="12">
+      <c r="AS21" s="7">
         <f t="shared" si="9"/>
         <v>0.82364203832008109</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AT21" s="7">
         <f t="shared" si="10"/>
         <v>0.73853103117650143</v>
       </c>
-      <c r="AU21" s="12">
+      <c r="AU21" s="7">
         <f t="shared" si="11"/>
         <v>1.299018990205173</v>
       </c>
-      <c r="AV21" s="12">
+      <c r="AV21" s="7">
         <f t="shared" si="12"/>
         <v>1.1550103669217944</v>
       </c>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>8.9499999999999993</v>
       </c>
@@ -23069,48 +23027,48 @@
       <c r="L22">
         <v>20</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <v>153.64888888888888</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="4">
         <v>189.04777777777778</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="4">
         <v>190.32419999999999</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <v>230.32423499999999</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="4">
         <v>32.978208239593222</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="4">
         <v>39.591149466582998</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="4">
         <v>30.753328250293087</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="4">
         <v>32.831508219873399</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="11">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
         <f t="shared" si="1"/>
         <v>899.3157386937072</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="4">
         <f t="shared" si="2"/>
         <v>1079.6506459537184</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y22" s="4">
         <f t="shared" si="3"/>
         <v>838.64326138549245</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="4">
         <f t="shared" si="4"/>
         <v>895.31522915594758</v>
       </c>
-      <c r="AA22" s="11"/>
+      <c r="AA22" s="4"/>
       <c r="AB22">
         <v>20</v>
       </c>
@@ -23145,36 +23103,36 @@
         <f t="shared" si="8"/>
         <v>65.088436021605887</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AN22" s="4">
         <v>26.574791760406775</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="4">
         <v>24.762300533416997</v>
       </c>
-      <c r="AP22" s="7">
+      <c r="AP22" s="4">
         <v>46.586671749706916</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AQ22" s="4">
         <v>46.513791780126596</v>
       </c>
-      <c r="AS22" s="12">
+      <c r="AS22" s="7">
         <f t="shared" si="9"/>
         <v>0.72469457130629278</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AT22" s="7">
         <f t="shared" si="10"/>
         <v>0.67526793554628151</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AU22" s="7">
         <f t="shared" si="11"/>
         <v>1.2704185386145077</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="AV22" s="7">
         <f t="shared" si="12"/>
         <v>1.2684311018440522</v>
       </c>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>5.14</v>
       </c>
@@ -23190,48 +23148,48 @@
       <c r="L23">
         <v>21</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <v>155.4534534</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="4">
         <v>190.34235000000001</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="4">
         <v>192.35339999999999</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="4">
         <v>234.23500000000001</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="4">
         <v>33.82205875034257</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="4">
         <v>39.748310823902997</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="4">
         <v>30.753328250293087</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="4">
         <v>32.831508219873399</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="11">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4">
         <f t="shared" si="1"/>
         <v>922.32754212184193</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="4">
         <f t="shared" si="2"/>
         <v>1083.9364361678347</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="4">
         <f t="shared" si="3"/>
         <v>838.64326138549245</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="4">
         <f t="shared" si="4"/>
         <v>895.31522915594758</v>
       </c>
-      <c r="AA23" s="11"/>
+      <c r="AA23" s="4"/>
       <c r="AB23">
         <v>21</v>
       </c>
@@ -23266,36 +23224,36 @@
         <f t="shared" si="8"/>
         <v>66.19359795776964</v>
       </c>
-      <c r="AN23" s="7">
+      <c r="AN23" s="4">
         <v>26.502941249657432</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AO23" s="4">
         <v>23.504889176097002</v>
       </c>
-      <c r="AP23" s="7">
+      <c r="AP23" s="4">
         <v>48.699671749706916</v>
       </c>
-      <c r="AQ23" s="7">
+      <c r="AQ23" s="4">
         <v>56.986269557904336</v>
       </c>
-      <c r="AS23" s="12">
+      <c r="AS23" s="7">
         <f t="shared" si="9"/>
         <v>0.72273520787815815</v>
       </c>
-      <c r="AT23" s="12">
+      <c r="AT23" s="7">
         <f t="shared" si="10"/>
         <v>0.64097832783216524</v>
       </c>
-      <c r="AU23" s="12">
+      <c r="AU23" s="7">
         <f t="shared" si="11"/>
         <v>1.3280400486145076</v>
       </c>
-      <c r="AV23" s="12">
+      <c r="AV23" s="7">
         <f t="shared" si="12"/>
         <v>1.5540155708440513</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>6.05</v>
       </c>
@@ -23311,48 +23269,48 @@
       <c r="L24">
         <v>22</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>159.35345000000001</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="4">
         <v>190.56659999999999</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <v>200.353453</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <v>235.43643599999999</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="4">
         <v>34.182663033014954</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="4">
         <v>40.094496475190098</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="4">
         <v>30.753328250293087</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="4">
         <v>32.831508219873399</v>
       </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="11">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4">
         <f t="shared" si="1"/>
         <v>932.16122091031775</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="4">
         <f t="shared" si="2"/>
         <v>1093.376918878434</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Y24" s="4">
         <f t="shared" si="3"/>
         <v>838.64326138549245</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24" s="4">
         <f t="shared" si="4"/>
         <v>895.31522915594758</v>
       </c>
-      <c r="AA24" s="11"/>
+      <c r="AA24" s="4"/>
       <c r="AB24">
         <v>22</v>
       </c>
@@ -23387,36 +23345,36 @@
         <f t="shared" si="8"/>
         <v>66.533117549444626</v>
       </c>
-      <c r="AN24" s="7">
+      <c r="AN24" s="4">
         <v>32.253636966985049</v>
       </c>
-      <c r="AO24" s="7">
+      <c r="AO24" s="4">
         <v>29.3408035248099</v>
       </c>
-      <c r="AP24" s="7">
+      <c r="AP24" s="4">
         <v>54.481901749706914</v>
       </c>
-      <c r="AQ24" s="7">
+      <c r="AQ24" s="4">
         <v>62.757634637269476</v>
       </c>
-      <c r="AS24" s="12">
+      <c r="AS24" s="7">
         <f t="shared" si="9"/>
         <v>0.87955668008968224</v>
       </c>
-      <c r="AT24" s="12">
+      <c r="AT24" s="7">
         <f t="shared" si="10"/>
         <v>0.80012371212156597</v>
       </c>
-      <c r="AU24" s="12">
+      <c r="AU24" s="7">
         <f t="shared" si="11"/>
         <v>1.4857214607145075</v>
       </c>
-      <c r="AV24" s="12">
+      <c r="AV24" s="7">
         <f t="shared" si="12"/>
         <v>1.7114006965583386</v>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>6.21</v>
       </c>
@@ -23432,64 +23390,64 @@
       <c r="L25">
         <v>23</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>180.57444444444442</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>191.94666666666666</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>211.36922222222222</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>236.8928888888889</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <v>35.604333333333301</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="4">
         <v>40.36</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <v>30.794444444444501</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="4">
         <v>33.4</v>
       </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="11">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4">
         <f>R25*27.27</f>
         <v>970.93016999999907</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="4">
         <f t="shared" si="2"/>
         <v>1100.6171999999999</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="4">
         <f t="shared" si="3"/>
         <v>839.76450000000148</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25" s="4">
         <f t="shared" si="4"/>
         <v>910.81799999999998</v>
       </c>
-      <c r="AA25" s="11"/>
+      <c r="AA25" s="4"/>
       <c r="AB25">
         <v>23</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="8">
         <v>4.8376984009869899</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AD25" s="8">
         <v>4.7527475487124002</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25" s="8">
         <v>2.6557227995817434</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AF25" s="8">
         <v>2.4548846202146457</v>
       </c>
-      <c r="AG25" s="13"/>
+      <c r="AG25" s="8"/>
       <c r="AH25">
         <v>23</v>
       </c>
@@ -23509,36 +23467,36 @@
         <f>AF25*27.27</f>
         <v>66.944703593253394</v>
       </c>
-      <c r="AN25" s="7">
+      <c r="AN25" s="4">
         <v>34.395666666666699</v>
       </c>
-      <c r="AO25" s="7">
+      <c r="AO25" s="4">
         <v>29.959999999999994</v>
       </c>
-      <c r="AP25" s="7">
+      <c r="AP25" s="4">
         <v>56.670955555555501</v>
       </c>
-      <c r="AQ25" s="7">
+      <c r="AQ25" s="4">
         <v>62.189142857142876</v>
       </c>
-      <c r="AS25" s="12">
+      <c r="AS25" s="7">
         <f t="shared" si="9"/>
         <v>0.93796983000000089</v>
       </c>
-      <c r="AT25" s="12">
+      <c r="AT25" s="7">
         <f t="shared" si="10"/>
         <v>0.81700919999999977</v>
       </c>
-      <c r="AU25" s="12">
+      <c r="AU25" s="7">
         <f t="shared" si="11"/>
         <v>1.5454169579999983</v>
       </c>
-      <c r="AV25" s="12">
+      <c r="AV25" s="7">
         <f t="shared" si="12"/>
         <v>1.6958979257142863</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>9.14</v>
       </c>
@@ -23552,7 +23510,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>9.9700000000000006</v>
       </c>
@@ -23566,7 +23524,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>5.91</v>
       </c>
@@ -23580,7 +23538,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>6.31</v>
       </c>
@@ -23591,42 +23549,42 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.35">
+      <c r="B30" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="17">
         <f>STDEV(C21:C28)</f>
         <v>1.8143475804975031</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="17">
         <f>STDEV(D21:D28)</f>
         <v>0.77153719473343774</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="17">
         <f>STDEV(E21:E28)</f>
         <v>0.41097227921809321</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="17">
         <f>STDEV(F21:F28)</f>
         <v>0.9096270821449034</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="C91" s="23"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="16"/>
+      <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="C92" s="23"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="16"/>
+      <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="C93" s="23"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="16"/>
+      <c r="C93" s="16"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="C94" s="23"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="16"/>
+      <c r="C94" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Amitrano/MEC_GN.xlsx
+++ b/Amitrano/MEC_GN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Documents\GitHub\Modified-Energy-Cascade\Amitrano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F1687-1806-4871-91DF-FAC0AB78FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158481E-9E2D-4463-A4D1-C1521589057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="598" activeTab="1" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="598" activeTab="1" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable&amp;Parameters list" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
   <si>
     <t>DCG</t>
   </si>
@@ -1335,6 +1335,18 @@
   </si>
   <si>
     <t>FW (g) per plant</t>
+  </si>
+  <si>
+    <t>pnet</t>
+  </si>
+  <si>
+    <t>vpd</t>
+  </si>
+  <si>
+    <t>tleaf</t>
+  </si>
+  <si>
+    <t>vpair</t>
   </si>
 </sst>
 </file>
@@ -15468,10 +15480,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64F49C3-1EE1-4E8D-8667-6D7C983D22B4}">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="AA19" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15944,7 +15956,10 @@
         <f>((1.717*U23)-19.96-(10.54*Y23))*(AE23/370)</f>
         <v>4.6707020353983712E-2</v>
       </c>
-      <c r="AA23" s="4"/>
+      <c r="AA23" s="4">
+        <f>((1.717*U23)-19.96-(10.54*Y23))*(AE22/370)</f>
+        <v>3.045015840368822E-2</v>
+      </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4">
         <f t="shared" ref="AC23:AC44" si="8">gA*Z23/(gA+Z23)</f>
@@ -16050,7 +16065,9 @@
         <f>((1.717*U24)-19.96-(10.54*Y24))*(AE24/370)</f>
         <v>6.1507488631663478E-2</v>
       </c>
-      <c r="AA24" s="4"/>
+      <c r="AA24" s="4">
+        <v>3.045015840368822E-2</v>
+      </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4">
         <f t="shared" si="8"/>
@@ -16138,7 +16155,7 @@
         <v>20.2</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="5"/>
+        <f>0.611*EXP(17.4*U25/(U25+239))</f>
         <v>2.3711147393183722</v>
       </c>
       <c r="W25" s="4">
@@ -18313,6 +18330,21 @@
         <f>CORREL(I22:I44,J22:J44)</f>
         <v>0.99362031428834907</v>
       </c>
+      <c r="W48" t="s">
+        <v>162</v>
+      </c>
+      <c r="X48" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>68</v>
+      </c>
       <c r="AI48" t="s">
         <v>135</v>
       </c>
@@ -18329,6 +18361,24 @@
         <f>J50/I51</f>
         <v>4.8743317822604242</v>
       </c>
+      <c r="W49">
+        <v>20.2</v>
+      </c>
+      <c r="X49">
+        <v>1.8748404243790369</v>
+      </c>
+      <c r="Y49">
+        <v>0.49627431493933544</v>
+      </c>
+      <c r="Z49">
+        <v>1.0880999488990712</v>
+      </c>
+      <c r="AA49">
+        <v>2.7916141485769558E-2</v>
+      </c>
+      <c r="AC49">
+        <v>2.7607859520769142E-2</v>
+      </c>
       <c r="AI49" t="s">
         <v>149</v>
       </c>
@@ -18349,6 +18399,24 @@
         <f>STDEV(J22:J44)</f>
         <v>40.21583923701256</v>
       </c>
+      <c r="W50">
+        <v>20.2</v>
+      </c>
+      <c r="X50">
+        <v>1.9565930732839654</v>
+      </c>
+      <c r="Y50">
+        <v>0.41452166603440699</v>
+      </c>
+      <c r="Z50">
+        <v>1.669019444386268</v>
+      </c>
+      <c r="AA50">
+        <v>4.6707020353983712E-2</v>
+      </c>
+      <c r="AC50">
+        <v>4.5850406015187792E-2</v>
+      </c>
     </row>
     <row r="51" spans="8:36" x14ac:dyDescent="0.35">
       <c r="H51" s="17" t="s">
@@ -18359,6 +18427,424 @@
         <v>8.2505338236050179</v>
       </c>
       <c r="J51" s="17"/>
+      <c r="W51">
+        <v>20.2</v>
+      </c>
+      <c r="X51">
+        <v>1.9338698903654961</v>
+      </c>
+      <c r="Y51">
+        <v>0.43724484895287613</v>
+      </c>
+      <c r="Z51">
+        <v>2.249938939873465</v>
+      </c>
+      <c r="AA51">
+        <v>6.1507488631663478E-2</v>
+      </c>
+      <c r="AC51">
+        <v>6.0030557108111636E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W52">
+        <v>20.2</v>
+      </c>
+      <c r="X52">
+        <v>1.9524718500465768</v>
+      </c>
+      <c r="Y52">
+        <v>0.41864288927179544</v>
+      </c>
+      <c r="Z52">
+        <v>2.8308584353606614</v>
+      </c>
+      <c r="AA52">
+        <v>7.8888403823706973E-2</v>
+      </c>
+      <c r="AC52">
+        <v>7.6475201201745946E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W53">
+        <v>20.2</v>
+      </c>
+      <c r="X53">
+        <v>1.9201795255015757</v>
+      </c>
+      <c r="Y53">
+        <v>0.45093521381679652</v>
+      </c>
+      <c r="Z53">
+        <v>3.4117779308478582</v>
+      </c>
+      <c r="AA53">
+        <v>9.1938589302220097E-2</v>
+      </c>
+      <c r="AC53">
+        <v>8.8677437885373495E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W54">
+        <v>20.2</v>
+      </c>
+      <c r="X54">
+        <v>1.9318939614160648</v>
+      </c>
+      <c r="Y54">
+        <v>0.4392207779023074</v>
+      </c>
+      <c r="Z54">
+        <v>3.992697426335055</v>
+      </c>
+      <c r="AA54">
+        <v>0.10892524251385043</v>
+      </c>
+      <c r="AC54">
+        <v>0.10437750451685485</v>
+      </c>
+    </row>
+    <row r="55" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W55">
+        <v>20.2</v>
+      </c>
+      <c r="X55">
+        <v>1.9093401438361168</v>
+      </c>
+      <c r="Y55">
+        <v>0.4617745954822553</v>
+      </c>
+      <c r="Z55">
+        <v>4.5736169218222518</v>
+      </c>
+      <c r="AA55">
+        <v>0.12183492186746975</v>
+      </c>
+      <c r="AC55">
+        <v>0.11617333422797045</v>
+      </c>
+    </row>
+    <row r="56" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W56">
+        <v>20.2</v>
+      </c>
+      <c r="X56">
+        <v>1.9223869204136546</v>
+      </c>
+      <c r="Y56">
+        <v>0.44872781890471775</v>
+      </c>
+      <c r="Z56">
+        <v>5.1545364173094477</v>
+      </c>
+      <c r="AA56">
+        <v>0.13922554418705291</v>
+      </c>
+      <c r="AC56">
+        <v>0.13188105928811195</v>
+      </c>
+    </row>
+    <row r="57" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W57">
+        <v>20.2</v>
+      </c>
+      <c r="X57">
+        <v>1.9001605424881858</v>
+      </c>
+      <c r="Y57">
+        <v>0.47095419683018647</v>
+      </c>
+      <c r="Z57">
+        <v>5.7354559127966445</v>
+      </c>
+      <c r="AA57">
+        <v>0.15128493854070688</v>
+      </c>
+      <c r="AC57">
+        <v>0.14265247045077659</v>
+      </c>
+    </row>
+    <row r="58" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W58">
+        <v>20.2</v>
+      </c>
+      <c r="X58">
+        <v>1.9128968159450943</v>
+      </c>
+      <c r="Y58">
+        <v>0.45821792337327788</v>
+      </c>
+      <c r="Z58">
+        <v>6.316375408283843</v>
+      </c>
+      <c r="AA58">
+        <v>0.16889958970189076</v>
+      </c>
+      <c r="AC58">
+        <v>0.15821088806937508</v>
+      </c>
+    </row>
+    <row r="59" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W59">
+        <v>20.2</v>
+      </c>
+      <c r="X59">
+        <v>1.9678634544515134</v>
+      </c>
+      <c r="Y59">
+        <v>0.40325128486685874</v>
+      </c>
+      <c r="Z59">
+        <v>6.8972949037710398</v>
+      </c>
+      <c r="AA59">
+        <v>0.19523317899557222</v>
+      </c>
+      <c r="AC59">
+        <v>0.18109117656039822</v>
+      </c>
+    </row>
+    <row r="60" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W60">
+        <v>20.2</v>
+      </c>
+      <c r="X60">
+        <v>1.8824675101238428</v>
+      </c>
+      <c r="Y60">
+        <v>0.48864722919452935</v>
+      </c>
+      <c r="Z60">
+        <v>7.4782143992582357</v>
+      </c>
+      <c r="AA60">
+        <v>0.19348481542771923</v>
+      </c>
+      <c r="AC60">
+        <v>0.1795859534082748</v>
+      </c>
+    </row>
+    <row r="61" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W61">
+        <v>20.2</v>
+      </c>
+      <c r="X61">
+        <v>1.8942242873729647</v>
+      </c>
+      <c r="Y61">
+        <v>0.47689045194540763</v>
+      </c>
+      <c r="Z61">
+        <v>8.0591338947454325</v>
+      </c>
+      <c r="AA61">
+        <v>0.211214099917478</v>
+      </c>
+      <c r="AC61">
+        <v>0.19475970186558375</v>
+      </c>
+    </row>
+    <row r="62" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W62">
+        <v>20.2</v>
+      </c>
+      <c r="X62">
+        <v>1.9120076479178498</v>
+      </c>
+      <c r="Y62">
+        <v>0.4591070914005223</v>
+      </c>
+      <c r="Z62">
+        <v>8.6400533902326284</v>
+      </c>
+      <c r="AA62">
+        <v>0.23081578645506209</v>
+      </c>
+      <c r="AC62">
+        <v>0.21130662456244406</v>
+      </c>
+    </row>
+    <row r="63" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W63">
+        <v>20.2</v>
+      </c>
+      <c r="X63">
+        <v>1.9249623320925644</v>
+      </c>
+      <c r="Y63">
+        <v>0.44615240722580796</v>
+      </c>
+      <c r="Z63">
+        <v>9.2209728857198243</v>
+      </c>
+      <c r="AA63">
+        <v>0.24973768024694104</v>
+      </c>
+      <c r="AC63">
+        <v>0.22705591340672293</v>
+      </c>
+    </row>
+    <row r="64" spans="8:36" x14ac:dyDescent="0.35">
+      <c r="W64">
+        <v>20.2</v>
+      </c>
+      <c r="X64">
+        <v>1.928173216635392</v>
+      </c>
+      <c r="Y64">
+        <v>0.4429415226829802</v>
+      </c>
+      <c r="Z64">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA64">
+        <v>0.26636765336941759</v>
+      </c>
+      <c r="AC64">
+        <v>0.2407196789669149</v>
+      </c>
+    </row>
+    <row r="65" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W65">
+        <v>20.2</v>
+      </c>
+      <c r="X65">
+        <v>1.9338540123650081</v>
+      </c>
+      <c r="Y65">
+        <v>0.43726072695336426</v>
+      </c>
+      <c r="Z65">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA65">
+        <v>0.2679538535314151</v>
+      </c>
+      <c r="AC65">
+        <v>0.24201437931267697</v>
+      </c>
+    </row>
+    <row r="66" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W66">
+        <v>20.2</v>
+      </c>
+      <c r="X66">
+        <v>1.9438324535596412</v>
+      </c>
+      <c r="Y66">
+        <v>0.42728228575873112</v>
+      </c>
+      <c r="Z66">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA66">
+        <v>0.27074004859857681</v>
+      </c>
+      <c r="AC66">
+        <v>0.24428495983908291</v>
+      </c>
+    </row>
+    <row r="67" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W67">
+        <v>20.2</v>
+      </c>
+      <c r="X67">
+        <v>1.9432273253188759</v>
+      </c>
+      <c r="Y67">
+        <v>0.42788741399949631</v>
+      </c>
+      <c r="Z67">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA67">
+        <v>0.27057108379871142</v>
+      </c>
+      <c r="AC67">
+        <v>0.24414739381793196</v>
+      </c>
+    </row>
+    <row r="68" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W68">
+        <v>20.2</v>
+      </c>
+      <c r="X68">
+        <v>1.8847398284156911</v>
+      </c>
+      <c r="Y68">
+        <v>0.48637491090268109</v>
+      </c>
+      <c r="Z68">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA68">
+        <v>0.25424011865257845</v>
+      </c>
+      <c r="AC68">
+        <v>0.23077156284485198</v>
+      </c>
+    </row>
+    <row r="69" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W69">
+        <v>20.2</v>
+      </c>
+      <c r="X69">
+        <v>1.9231885830159927</v>
+      </c>
+      <c r="Y69">
+        <v>0.44792615630237964</v>
+      </c>
+      <c r="Z69">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA69">
+        <v>0.26497583661857588</v>
+      </c>
+      <c r="AC69">
+        <v>0.23958241615469938</v>
+      </c>
+    </row>
+    <row r="70" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W70">
+        <v>20.2</v>
+      </c>
+      <c r="X70">
+        <v>1.9231885830159927</v>
+      </c>
+      <c r="Y70">
+        <v>0.44792615630237964</v>
+      </c>
+      <c r="Z70">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA70">
+        <v>0.26497583661857588</v>
+      </c>
+      <c r="AC70">
+        <v>0.23958241615469938</v>
+      </c>
+    </row>
+    <row r="71" spans="23:29" x14ac:dyDescent="0.35">
+      <c r="W71">
+        <v>20.2</v>
+      </c>
+      <c r="X71">
+        <v>1.9231885830159927</v>
+      </c>
+      <c r="Y71">
+        <v>0.44792615630237964</v>
+      </c>
+      <c r="Z71">
+        <v>9.801892381207022</v>
+      </c>
+      <c r="AA71">
+        <v>0.26497583661857588</v>
+      </c>
+      <c r="AC71">
+        <v>0.23958241615469938</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Amitrano/MEC_GN.xlsx
+++ b/Amitrano/MEC_GN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Documents\GitHub\Modified-Energy-Cascade\Amitrano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158481E-9E2D-4463-A4D1-C1521589057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4BBE40-E8EE-43A8-8053-14984FBFE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="598" activeTab="1" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="598" activeTab="1" xr2:uid="{6C05BF09-2788-476D-A41B-F5618A13F6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable&amp;Parameters list" sheetId="1" r:id="rId1"/>
@@ -15482,8 +15482,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:AN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA19" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21:AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
